--- a/Code/Results/Cases/Case_4_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9966827615372954</v>
+      </c>
+      <c r="D2">
+        <v>1.016720326568148</v>
+      </c>
+      <c r="E2">
+        <v>1.00488087651209</v>
+      </c>
+      <c r="F2">
+        <v>1.016722845463067</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.040641554843895</v>
+      </c>
+      <c r="J2">
+        <v>1.018963145365318</v>
+      </c>
+      <c r="K2">
+        <v>1.027951533485377</v>
+      </c>
+      <c r="L2">
+        <v>1.01627262922108</v>
+      </c>
+      <c r="M2">
+        <v>1.027954018723184</v>
+      </c>
+      <c r="N2">
+        <v>1.020410189908443</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.006246647122826</v>
+      </c>
+      <c r="D3">
+        <v>1.024282192872463</v>
+      </c>
+      <c r="E3">
+        <v>1.01390715372576</v>
+      </c>
+      <c r="F3">
+        <v>1.025308127076094</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.043438014838843</v>
+      </c>
+      <c r="J3">
+        <v>1.026568458739455</v>
+      </c>
+      <c r="K3">
+        <v>1.034613526868735</v>
+      </c>
+      <c r="L3">
+        <v>1.024365129374976</v>
+      </c>
+      <c r="M3">
+        <v>1.03562711096244</v>
+      </c>
+      <c r="N3">
+        <v>1.028026303699913</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.012206190395272</v>
+      </c>
+      <c r="D4">
+        <v>1.028996589444884</v>
+      </c>
+      <c r="E4">
+        <v>1.019538185888536</v>
+      </c>
+      <c r="F4">
+        <v>1.030665096270885</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.045165821273097</v>
+      </c>
+      <c r="J4">
+        <v>1.031302731676658</v>
+      </c>
+      <c r="K4">
+        <v>1.038757207323429</v>
+      </c>
+      <c r="L4">
+        <v>1.029406385293417</v>
+      </c>
+      <c r="M4">
+        <v>1.040406988542118</v>
+      </c>
+      <c r="N4">
+        <v>1.032767299847716</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.014660650340802</v>
+      </c>
+      <c r="D5">
+        <v>1.030938627021466</v>
+      </c>
+      <c r="E5">
+        <v>1.021858800722168</v>
+      </c>
+      <c r="F5">
+        <v>1.032872957253808</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.0458737916707</v>
+      </c>
+      <c r="J5">
+        <v>1.033251307206105</v>
+      </c>
+      <c r="K5">
+        <v>1.040461846604582</v>
+      </c>
+      <c r="L5">
+        <v>1.03148220645424</v>
+      </c>
+      <c r="M5">
+        <v>1.042375112874644</v>
+      </c>
+      <c r="N5">
+        <v>1.03471864257792</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.015069883052905</v>
+      </c>
+      <c r="D6">
+        <v>1.031262441983045</v>
+      </c>
+      <c r="E6">
+        <v>1.022245800096115</v>
+      </c>
+      <c r="F6">
+        <v>1.033241162673749</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.045991615404892</v>
+      </c>
+      <c r="J6">
+        <v>1.033576117419638</v>
+      </c>
+      <c r="K6">
+        <v>1.040745943308098</v>
+      </c>
+      <c r="L6">
+        <v>1.031828280156705</v>
+      </c>
+      <c r="M6">
+        <v>1.042703226404481</v>
+      </c>
+      <c r="N6">
+        <v>1.035043914059212</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.01223918233276</v>
+      </c>
+      <c r="D7">
+        <v>1.029022692239496</v>
+      </c>
+      <c r="E7">
+        <v>1.019569373098158</v>
+      </c>
+      <c r="F7">
+        <v>1.03069476748007</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.045175352067799</v>
+      </c>
+      <c r="J7">
+        <v>1.031328928786701</v>
+      </c>
+      <c r="K7">
+        <v>1.038780128341577</v>
+      </c>
+      <c r="L7">
+        <v>1.02943428957037</v>
+      </c>
+      <c r="M7">
+        <v>1.040433445434868</v>
+      </c>
+      <c r="N7">
+        <v>1.03279353416066</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9999647969760495</v>
+      </c>
+      <c r="D8">
+        <v>1.019314713934101</v>
+      </c>
+      <c r="E8">
+        <v>1.007976976871259</v>
+      </c>
+      <c r="F8">
+        <v>1.019667416991932</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.041604284299764</v>
+      </c>
+      <c r="J8">
+        <v>1.021574020447457</v>
+      </c>
+      <c r="K8">
+        <v>1.03023925975513</v>
+      </c>
+      <c r="L8">
+        <v>1.0190499683149</v>
+      </c>
+      <c r="M8">
+        <v>1.030587411089986</v>
+      </c>
+      <c r="N8">
+        <v>1.02302477273267</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9763815847809849</v>
+      </c>
+      <c r="D9">
+        <v>1.000691483428617</v>
+      </c>
+      <c r="E9">
+        <v>0.9857634158467601</v>
+      </c>
+      <c r="F9">
+        <v>0.9985486526750393</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.034626147692044</v>
+      </c>
+      <c r="J9">
+        <v>1.002796852491582</v>
+      </c>
+      <c r="K9">
+        <v>1.013773351750089</v>
+      </c>
+      <c r="L9">
+        <v>0.9990917734682886</v>
+      </c>
+      <c r="M9">
+        <v>1.011665320947003</v>
+      </c>
+      <c r="N9">
+        <v>1.004220939044527</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.959011911184209</v>
+      </c>
+      <c r="D10">
+        <v>0.9870107951638464</v>
+      </c>
+      <c r="E10">
+        <v>0.9694529655308503</v>
+      </c>
+      <c r="F10">
+        <v>0.9830560330564624</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.029414249398913</v>
+      </c>
+      <c r="J10">
+        <v>0.9889517276217055</v>
+      </c>
+      <c r="K10">
+        <v>1.001618602084932</v>
+      </c>
+      <c r="L10">
+        <v>0.9843965642400322</v>
+      </c>
+      <c r="M10">
+        <v>0.9977381068479663</v>
+      </c>
+      <c r="N10">
+        <v>0.990356152509277</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9510052437112622</v>
+      </c>
+      <c r="D11">
+        <v>0.9807175265644464</v>
+      </c>
+      <c r="E11">
+        <v>0.9619492677883766</v>
+      </c>
+      <c r="F11">
+        <v>0.975933504217899</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.026996763637841</v>
+      </c>
+      <c r="J11">
+        <v>0.9825685139016704</v>
+      </c>
+      <c r="K11">
+        <v>0.9960124798051287</v>
+      </c>
+      <c r="L11">
+        <v>0.9776263013003004</v>
+      </c>
+      <c r="M11">
+        <v>0.9913240129589527</v>
+      </c>
+      <c r="N11">
+        <v>0.9839638738935946</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9479482285731582</v>
+      </c>
+      <c r="D12">
+        <v>0.9783171004160813</v>
+      </c>
+      <c r="E12">
+        <v>0.9590867817655656</v>
+      </c>
+      <c r="F12">
+        <v>0.9732173307748314</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.026071712862428</v>
+      </c>
+      <c r="J12">
+        <v>0.9801314172316666</v>
+      </c>
+      <c r="K12">
+        <v>0.9938718438366285</v>
+      </c>
+      <c r="L12">
+        <v>0.9750421571450267</v>
+      </c>
+      <c r="M12">
+        <v>0.9888762839359128</v>
+      </c>
+      <c r="N12">
+        <v>0.9815233162667805</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9486079073226276</v>
+      </c>
+      <c r="D13">
+        <v>0.9788349764245803</v>
+      </c>
+      <c r="E13">
+        <v>0.9597043654445827</v>
+      </c>
+      <c r="F13">
+        <v>0.9738033035982793</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.02627141888462</v>
+      </c>
+      <c r="J13">
+        <v>0.9806573150000454</v>
+      </c>
+      <c r="K13">
+        <v>0.9943337772704429</v>
+      </c>
+      <c r="L13">
+        <v>0.9755997534248728</v>
+      </c>
+      <c r="M13">
+        <v>0.9894044218834835</v>
+      </c>
+      <c r="N13">
+        <v>0.9820499608703116</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.950754308025155</v>
+      </c>
+      <c r="D14">
+        <v>0.9805204357350419</v>
+      </c>
+      <c r="E14">
+        <v>0.9617142479191914</v>
+      </c>
+      <c r="F14">
+        <v>0.9757104777397394</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.026920870364879</v>
+      </c>
+      <c r="J14">
+        <v>0.9823684613290748</v>
+      </c>
+      <c r="K14">
+        <v>0.9958367666322716</v>
+      </c>
+      <c r="L14">
+        <v>0.977414163460773</v>
+      </c>
+      <c r="M14">
+        <v>0.9911230635034746</v>
+      </c>
+      <c r="N14">
+        <v>0.9837635372233995</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9520654456411883</v>
+      </c>
+      <c r="D15">
+        <v>0.9815503342770727</v>
+      </c>
+      <c r="E15">
+        <v>0.9629423281260955</v>
+      </c>
+      <c r="F15">
+        <v>0.9768759250441057</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.027317331382344</v>
+      </c>
+      <c r="J15">
+        <v>0.9834137393814554</v>
+      </c>
+      <c r="K15">
+        <v>0.9967548622317264</v>
+      </c>
+      <c r="L15">
+        <v>0.9785226166395907</v>
+      </c>
+      <c r="M15">
+        <v>0.992173075367294</v>
+      </c>
+      <c r="N15">
+        <v>0.9848102996905097</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9595322457199023</v>
+      </c>
+      <c r="D16">
+        <v>0.9874200816879768</v>
+      </c>
+      <c r="E16">
+        <v>0.969940937592677</v>
+      </c>
+      <c r="F16">
+        <v>0.9835193316952782</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.029571065468872</v>
+      </c>
+      <c r="J16">
+        <v>0.9893665528200075</v>
+      </c>
+      <c r="K16">
+        <v>1.001982888889778</v>
+      </c>
+      <c r="L16">
+        <v>0.9848366422362502</v>
+      </c>
+      <c r="M16">
+        <v>0.9981550906961335</v>
+      </c>
+      <c r="N16">
+        <v>0.9907715668069416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9640794979587456</v>
+      </c>
+      <c r="D17">
+        <v>0.990998365574924</v>
+      </c>
+      <c r="E17">
+        <v>0.9742070425754938</v>
+      </c>
+      <c r="F17">
+        <v>0.9875702957350502</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.030939840299271</v>
+      </c>
+      <c r="J17">
+        <v>0.9929916389728131</v>
+      </c>
+      <c r="K17">
+        <v>1.005166088642528</v>
+      </c>
+      <c r="L17">
+        <v>0.9886829523603189</v>
+      </c>
+      <c r="M17">
+        <v>1.001799830102799</v>
+      </c>
+      <c r="N17">
+        <v>0.9944018009978874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9666857633139041</v>
+      </c>
+      <c r="D18">
+        <v>0.9930504341286336</v>
+      </c>
+      <c r="E18">
+        <v>0.9766535144998907</v>
+      </c>
+      <c r="F18">
+        <v>0.9898938371506111</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.031722944238102</v>
+      </c>
+      <c r="J18">
+        <v>0.9950692327246158</v>
+      </c>
+      <c r="K18">
+        <v>1.006990214159125</v>
+      </c>
+      <c r="L18">
+        <v>0.9908877864412492</v>
+      </c>
+      <c r="M18">
+        <v>1.003889326550587</v>
+      </c>
+      <c r="N18">
+        <v>0.9964823451711212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9675668920958862</v>
+      </c>
+      <c r="D19">
+        <v>0.9937443857447973</v>
+      </c>
+      <c r="E19">
+        <v>0.9774808411639674</v>
+      </c>
+      <c r="F19">
+        <v>0.9906796634669005</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.031987451357204</v>
+      </c>
+      <c r="J19">
+        <v>0.9957715988904879</v>
+      </c>
+      <c r="K19">
+        <v>1.007606851534913</v>
+      </c>
+      <c r="L19">
+        <v>0.9916332454467708</v>
+      </c>
+      <c r="M19">
+        <v>1.004595822101558</v>
+      </c>
+      <c r="N19">
+        <v>0.9971857087775114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9635964524028564</v>
+      </c>
+      <c r="D20">
+        <v>0.9906181269227008</v>
+      </c>
+      <c r="E20">
+        <v>0.9737537207012643</v>
+      </c>
+      <c r="F20">
+        <v>0.9871397875347911</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.030794583620068</v>
+      </c>
+      <c r="J20">
+        <v>0.9926065652574079</v>
+      </c>
+      <c r="K20">
+        <v>1.004827976005001</v>
+      </c>
+      <c r="L20">
+        <v>0.9882743320164208</v>
+      </c>
+      <c r="M20">
+        <v>1.001412601457113</v>
+      </c>
+      <c r="N20">
+        <v>0.9940161804336379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9501246280620977</v>
+      </c>
+      <c r="D21">
+        <v>0.9800259103452096</v>
+      </c>
+      <c r="E21">
+        <v>0.9611245469633903</v>
+      </c>
+      <c r="F21">
+        <v>0.9751508851916884</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.026730397444308</v>
+      </c>
+      <c r="J21">
+        <v>0.9818664658463256</v>
+      </c>
+      <c r="K21">
+        <v>0.9953958431248032</v>
+      </c>
+      <c r="L21">
+        <v>0.9768818538453607</v>
+      </c>
+      <c r="M21">
+        <v>0.990618836440067</v>
+      </c>
+      <c r="N21">
+        <v>0.9832608288494854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9411676711791209</v>
+      </c>
+      <c r="D22">
+        <v>0.9729979024024612</v>
+      </c>
+      <c r="E22">
+        <v>0.9527426695319781</v>
+      </c>
+      <c r="F22">
+        <v>0.96719938010023</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.024016437420585</v>
+      </c>
+      <c r="J22">
+        <v>0.9747263114237916</v>
+      </c>
+      <c r="K22">
+        <v>0.9891239495284074</v>
+      </c>
+      <c r="L22">
+        <v>0.9693122621987703</v>
+      </c>
+      <c r="M22">
+        <v>0.9834498836727189</v>
+      </c>
+      <c r="N22">
+        <v>0.976110534588684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9459659718422097</v>
+      </c>
+      <c r="D23">
+        <v>0.9767613355532347</v>
+      </c>
+      <c r="E23">
+        <v>0.9572314055146788</v>
+      </c>
+      <c r="F23">
+        <v>0.9714570687861516</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.02547134108278</v>
+      </c>
+      <c r="J23">
+        <v>0.9785511888618329</v>
+      </c>
+      <c r="K23">
+        <v>0.9924837921736926</v>
+      </c>
+      <c r="L23">
+        <v>0.9733667865531733</v>
+      </c>
+      <c r="M23">
+        <v>0.9872895036793178</v>
+      </c>
+      <c r="N23">
+        <v>0.9799408437914071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.963814861526796</v>
+      </c>
+      <c r="D24">
+        <v>0.9907900482824615</v>
+      </c>
+      <c r="E24">
+        <v>0.9739586860860753</v>
+      </c>
+      <c r="F24">
+        <v>0.9873344365477761</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.030860265861075</v>
+      </c>
+      <c r="J24">
+        <v>0.9927806768227418</v>
+      </c>
+      <c r="K24">
+        <v>1.00498085474057</v>
+      </c>
+      <c r="L24">
+        <v>0.9884590888075895</v>
+      </c>
+      <c r="M24">
+        <v>1.001587685395263</v>
+      </c>
+      <c r="N24">
+        <v>0.9941905392573654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9827410692037415</v>
+      </c>
+      <c r="D25">
+        <v>1.005708674483899</v>
+      </c>
+      <c r="E25">
+        <v>0.9917458507350581</v>
+      </c>
+      <c r="F25">
+        <v>1.004234341182475</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.036520631977957</v>
+      </c>
+      <c r="J25">
+        <v>1.007863559985493</v>
+      </c>
+      <c r="K25">
+        <v>1.018219012328772</v>
+      </c>
+      <c r="L25">
+        <v>1.004473667565078</v>
+      </c>
+      <c r="M25">
+        <v>1.016767278167029</v>
+      </c>
+      <c r="N25">
+        <v>1.009294841844239</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9966827615372954</v>
+        <v>0.9533967847523507</v>
       </c>
       <c r="D2">
-        <v>1.016720326568148</v>
+        <v>0.9804507861798246</v>
       </c>
       <c r="E2">
-        <v>1.00488087651209</v>
+        <v>0.9619248579735045</v>
       </c>
       <c r="F2">
-        <v>1.016722845463067</v>
+        <v>0.9275975921595164</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040641554843895</v>
+        <v>1.025588419556613</v>
       </c>
       <c r="J2">
-        <v>1.018963145365318</v>
+        <v>0.9770667139420404</v>
       </c>
       <c r="K2">
-        <v>1.027951533485377</v>
+        <v>0.99218936267515</v>
       </c>
       <c r="L2">
-        <v>1.01627262922108</v>
+        <v>0.9739414227388806</v>
       </c>
       <c r="M2">
-        <v>1.027954018723184</v>
+        <v>0.9401670981671422</v>
       </c>
       <c r="N2">
-        <v>1.020410189908443</v>
+        <v>0.9784542607469564</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006246647122826</v>
+        <v>0.96660902297113</v>
       </c>
       <c r="D3">
-        <v>1.024282192872463</v>
+        <v>0.9901125135822284</v>
       </c>
       <c r="E3">
-        <v>1.01390715372576</v>
+        <v>0.97451276213057</v>
       </c>
       <c r="F3">
-        <v>1.025308127076094</v>
+        <v>0.944231023033321</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043438014838843</v>
+        <v>1.029257573398026</v>
       </c>
       <c r="J3">
-        <v>1.026568458739455</v>
+        <v>0.9880532854118569</v>
       </c>
       <c r="K3">
-        <v>1.034613526868735</v>
+        <v>1.000873489683809</v>
       </c>
       <c r="L3">
-        <v>1.024365129374976</v>
+        <v>0.985482489479434</v>
       </c>
       <c r="M3">
-        <v>1.03562711096244</v>
+        <v>0.9556309733115855</v>
       </c>
       <c r="N3">
-        <v>1.028026303699913</v>
+        <v>0.9894564344084374</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012206190395272</v>
+        <v>0.9746824636010452</v>
       </c>
       <c r="D4">
-        <v>1.028996589444884</v>
+        <v>0.9960209790948646</v>
       </c>
       <c r="E4">
-        <v>1.019538185888536</v>
+        <v>0.9822121617138589</v>
       </c>
       <c r="F4">
-        <v>1.030665096270885</v>
+        <v>0.9543734565663977</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045165821273097</v>
+        <v>1.031481922248511</v>
       </c>
       <c r="J4">
-        <v>1.031302731676658</v>
+        <v>0.9947567409429167</v>
       </c>
       <c r="K4">
-        <v>1.038757207323429</v>
+        <v>1.006167665815764</v>
       </c>
       <c r="L4">
-        <v>1.029406385293417</v>
+        <v>0.992530119462094</v>
       </c>
       <c r="M4">
-        <v>1.040406988542118</v>
+        <v>0.96505564006028</v>
       </c>
       <c r="N4">
-        <v>1.032767299847716</v>
+        <v>0.9961694096152485</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014660650340802</v>
+        <v>0.977974749040365</v>
       </c>
       <c r="D5">
-        <v>1.030938627021466</v>
+        <v>0.9984311009912691</v>
       </c>
       <c r="E5">
-        <v>1.021858800722168</v>
+        <v>0.9853535378827868</v>
       </c>
       <c r="F5">
-        <v>1.032872957253808</v>
+        <v>0.9585055940146054</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0458737916707</v>
+        <v>1.03238457762379</v>
       </c>
       <c r="J5">
-        <v>1.033251307206105</v>
+        <v>0.9974878974930658</v>
       </c>
       <c r="K5">
-        <v>1.040461846604582</v>
+        <v>1.008323421596792</v>
       </c>
       <c r="L5">
-        <v>1.03148220645424</v>
+        <v>0.9954028777822476</v>
       </c>
       <c r="M5">
-        <v>1.042375112874644</v>
+        <v>0.9688940998214252</v>
       </c>
       <c r="N5">
-        <v>1.03471864257792</v>
+        <v>0.9989044447209666</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015069883052905</v>
+        <v>0.9785218813144596</v>
       </c>
       <c r="D6">
-        <v>1.031262441983045</v>
+        <v>0.9988316601924531</v>
       </c>
       <c r="E6">
-        <v>1.022245800096115</v>
+        <v>0.9858756821592387</v>
       </c>
       <c r="F6">
-        <v>1.033241162673749</v>
+        <v>0.9591921035933747</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045991615404892</v>
+        <v>1.032534321942571</v>
       </c>
       <c r="J6">
-        <v>1.033576117419638</v>
+        <v>0.997941631254845</v>
       </c>
       <c r="K6">
-        <v>1.040745943308098</v>
+        <v>1.008681486281234</v>
       </c>
       <c r="L6">
-        <v>1.031828280156705</v>
+        <v>0.9958802165745508</v>
       </c>
       <c r="M6">
-        <v>1.042703226404481</v>
+        <v>0.9695317407131204</v>
       </c>
       <c r="N6">
-        <v>1.035043914059212</v>
+        <v>0.9993588228367318</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01223918233276</v>
+        <v>0.9747268408496925</v>
       </c>
       <c r="D7">
-        <v>1.029022692239496</v>
+        <v>0.9960534632432044</v>
       </c>
       <c r="E7">
-        <v>1.019569373098158</v>
+        <v>0.9822544985863528</v>
       </c>
       <c r="F7">
-        <v>1.03069476748007</v>
+        <v>0.9544291681559035</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045175352067799</v>
+        <v>1.031494107062711</v>
       </c>
       <c r="J7">
-        <v>1.031328928786701</v>
+        <v>0.9947935645140384</v>
       </c>
       <c r="K7">
-        <v>1.038780128341577</v>
+        <v>1.006196736456419</v>
       </c>
       <c r="L7">
-        <v>1.02943428957037</v>
+        <v>0.9925688467716608</v>
       </c>
       <c r="M7">
-        <v>1.040433445434868</v>
+        <v>0.9651073972876761</v>
       </c>
       <c r="N7">
-        <v>1.03279353416066</v>
+        <v>0.9962062854800651</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9999647969760495</v>
+        <v>0.9579684729814996</v>
       </c>
       <c r="D8">
-        <v>1.019314713934101</v>
+        <v>0.9837926659501767</v>
       </c>
       <c r="E8">
-        <v>1.007976976871259</v>
+        <v>0.9662787950903404</v>
       </c>
       <c r="F8">
-        <v>1.019667416991932</v>
+        <v>0.9333586258534657</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041604284299764</v>
+        <v>1.026861714552513</v>
       </c>
       <c r="J8">
-        <v>1.021574020447457</v>
+        <v>0.9808703789317066</v>
       </c>
       <c r="K8">
-        <v>1.03023925975513</v>
+        <v>0.9951967455205231</v>
       </c>
       <c r="L8">
-        <v>1.0190499683149</v>
+        <v>0.9779357818791289</v>
       </c>
       <c r="M8">
-        <v>1.030587411089986</v>
+        <v>0.9455239451098475</v>
       </c>
       <c r="N8">
-        <v>1.02302477273267</v>
+        <v>0.9822633273771947</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9763815847809849</v>
+        <v>0.9240915763539248</v>
       </c>
       <c r="D9">
-        <v>1.000691483428617</v>
+        <v>0.959072600139771</v>
       </c>
       <c r="E9">
-        <v>0.9857634158467601</v>
+        <v>0.934059155449991</v>
       </c>
       <c r="F9">
-        <v>0.9985486526750393</v>
+        <v>0.8904903212785175</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034626147692044</v>
+        <v>1.017354010541277</v>
       </c>
       <c r="J9">
-        <v>1.002796852491582</v>
+        <v>0.9526422758572599</v>
       </c>
       <c r="K9">
-        <v>1.013773351750089</v>
+        <v>0.9728665365388155</v>
       </c>
       <c r="L9">
-        <v>0.9990917734682886</v>
+        <v>0.9483210689771532</v>
       </c>
       <c r="M9">
-        <v>1.011665320947003</v>
+        <v>0.9056508961397222</v>
       </c>
       <c r="N9">
-        <v>1.004220939044527</v>
+        <v>0.9539951371585735</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.959011911184209</v>
+        <v>0.8972065931436572</v>
       </c>
       <c r="D10">
-        <v>0.9870107951638464</v>
+        <v>0.9395499040113294</v>
       </c>
       <c r="E10">
-        <v>0.9694529655308503</v>
+        <v>0.9085627787598909</v>
       </c>
       <c r="F10">
-        <v>0.9830560330564624</v>
+        <v>0.8560857397763839</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029414249398913</v>
+        <v>1.009726308960838</v>
       </c>
       <c r="J10">
-        <v>0.9889517276217055</v>
+        <v>0.9301886656325392</v>
       </c>
       <c r="K10">
-        <v>1.001618602084932</v>
+        <v>0.9551036807192421</v>
       </c>
       <c r="L10">
-        <v>0.9843965642400322</v>
+        <v>0.9248056083042951</v>
       </c>
       <c r="M10">
-        <v>0.9977381068479663</v>
+        <v>0.8736508521190653</v>
       </c>
       <c r="N10">
-        <v>0.990356152509277</v>
+        <v>0.9315096402318688</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9510052437112622</v>
+        <v>0.8840408775951821</v>
       </c>
       <c r="D11">
-        <v>0.9807175265644464</v>
+        <v>0.9300293814374104</v>
       </c>
       <c r="E11">
-        <v>0.9619492677883766</v>
+        <v>0.8961015379091524</v>
       </c>
       <c r="F11">
-        <v>0.975933504217899</v>
+        <v>0.8390706185724418</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026996763637841</v>
+        <v>1.005977530765149</v>
       </c>
       <c r="J11">
-        <v>0.9825685139016704</v>
+        <v>0.9191825467696534</v>
       </c>
       <c r="K11">
-        <v>0.9960124798051287</v>
+        <v>0.9464035643385326</v>
       </c>
       <c r="L11">
-        <v>0.9776263013003004</v>
+        <v>0.9132903611197611</v>
       </c>
       <c r="M11">
-        <v>0.9913240129589527</v>
+        <v>0.8578339877068057</v>
       </c>
       <c r="N11">
-        <v>0.9839638738935946</v>
+        <v>0.9204878914177783</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9479482285731582</v>
+        <v>0.8788523032850295</v>
       </c>
       <c r="D12">
-        <v>0.9783171004160813</v>
+        <v>0.9262854866776589</v>
       </c>
       <c r="E12">
-        <v>0.9590867817655656</v>
+        <v>0.8911951099772636</v>
       </c>
       <c r="F12">
-        <v>0.9732173307748314</v>
+        <v>0.8323292700297698</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026071712862428</v>
+        <v>1.004498914523742</v>
       </c>
       <c r="J12">
-        <v>0.9801314172316666</v>
+        <v>0.9148436845694958</v>
       </c>
       <c r="K12">
-        <v>0.9938718438366285</v>
+        <v>0.9429756853309473</v>
       </c>
       <c r="L12">
-        <v>0.9750421571450267</v>
+        <v>0.908752696568495</v>
       </c>
       <c r="M12">
-        <v>0.9888762839359128</v>
+        <v>0.8515700338520729</v>
       </c>
       <c r="N12">
-        <v>0.9815233162667805</v>
+        <v>0.9161428675356218</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9486079073226276</v>
+        <v>0.879980259620199</v>
       </c>
       <c r="D13">
-        <v>0.9788349764245803</v>
+        <v>0.9270989739748464</v>
       </c>
       <c r="E13">
-        <v>0.9597043654445827</v>
+        <v>0.8922615109387344</v>
       </c>
       <c r="F13">
-        <v>0.9738033035982793</v>
+        <v>0.8337966193091558</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02627141888462</v>
+        <v>1.004820393765413</v>
       </c>
       <c r="J13">
-        <v>0.9806573150000454</v>
+        <v>0.9157869785681779</v>
       </c>
       <c r="K13">
-        <v>0.9943337772704429</v>
+        <v>0.943720822531854</v>
       </c>
       <c r="L13">
-        <v>0.9755997534248728</v>
+        <v>0.9097391216564323</v>
       </c>
       <c r="M13">
-        <v>0.9894044218834835</v>
+        <v>0.8529333249677415</v>
       </c>
       <c r="N13">
-        <v>0.9820499608703116</v>
+        <v>0.9170875011199794</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.950754308025155</v>
+        <v>0.8836185959963622</v>
       </c>
       <c r="D14">
-        <v>0.9805204357350419</v>
+        <v>0.9297245004746234</v>
       </c>
       <c r="E14">
-        <v>0.9617142479191914</v>
+        <v>0.8957021232748178</v>
       </c>
       <c r="F14">
-        <v>0.9757104777397394</v>
+        <v>0.8385227556614476</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026920870364879</v>
+        <v>1.005857209984142</v>
       </c>
       <c r="J14">
-        <v>0.9823684613290748</v>
+        <v>0.9188294469573606</v>
       </c>
       <c r="K14">
-        <v>0.9958367666322716</v>
+        <v>0.9461245565473437</v>
       </c>
       <c r="L14">
-        <v>0.977414163460773</v>
+        <v>0.9129210430353663</v>
       </c>
       <c r="M14">
-        <v>0.9911230635034746</v>
+        <v>0.8573248597023941</v>
       </c>
       <c r="N14">
-        <v>0.9837635372233995</v>
+        <v>0.9201342901632505</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9520654456411883</v>
+        <v>0.8858181316915199</v>
       </c>
       <c r="D15">
-        <v>0.9815503342770727</v>
+        <v>0.9313128708235454</v>
       </c>
       <c r="E15">
-        <v>0.9629423281260955</v>
+        <v>0.897782737853267</v>
       </c>
       <c r="F15">
-        <v>0.9768759250441057</v>
+        <v>0.8413749035543595</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027317331382344</v>
+        <v>1.006483880281111</v>
       </c>
       <c r="J15">
-        <v>0.9834137393814554</v>
+        <v>0.9206685819979905</v>
       </c>
       <c r="K15">
-        <v>0.9967548622317264</v>
+        <v>0.9475778624140656</v>
       </c>
       <c r="L15">
-        <v>0.9785226166395907</v>
+        <v>0.9148447291786721</v>
       </c>
       <c r="M15">
-        <v>0.992173075367294</v>
+        <v>0.8599754701908723</v>
       </c>
       <c r="N15">
-        <v>0.9848102996905097</v>
+        <v>0.9219760369865899</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9595322457199023</v>
+        <v>0.898043037851097</v>
       </c>
       <c r="D16">
-        <v>0.9874200816879768</v>
+        <v>0.940155713550575</v>
       </c>
       <c r="E16">
-        <v>0.969940937592677</v>
+        <v>0.9093550169221651</v>
       </c>
       <c r="F16">
-        <v>0.9835193316952782</v>
+        <v>0.857162658400171</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029571065468872</v>
+        <v>1.009964266030952</v>
       </c>
       <c r="J16">
-        <v>0.9893665528200075</v>
+        <v>0.9308877131578914</v>
       </c>
       <c r="K16">
-        <v>1.001982888889778</v>
+        <v>0.9556564629152502</v>
       </c>
       <c r="L16">
-        <v>0.9848366422362502</v>
+        <v>0.9255372338491734</v>
       </c>
       <c r="M16">
-        <v>0.9981550906961335</v>
+        <v>0.8746522014559686</v>
       </c>
       <c r="N16">
-        <v>0.9907715668069416</v>
+        <v>0.9322096804848888</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9640794979587456</v>
+        <v>0.9052635260142822</v>
       </c>
       <c r="D17">
-        <v>0.990998365574924</v>
+        <v>0.945389738389852</v>
       </c>
       <c r="E17">
-        <v>0.9742070425754938</v>
+        <v>0.9161966035424626</v>
       </c>
       <c r="F17">
-        <v>0.9875702957350502</v>
+        <v>0.8664402915290742</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030939840299271</v>
+        <v>1.012017008486303</v>
       </c>
       <c r="J17">
-        <v>0.9929916389728131</v>
+        <v>0.9369210317088251</v>
       </c>
       <c r="K17">
-        <v>1.005166088642528</v>
+        <v>0.96042819109745</v>
       </c>
       <c r="L17">
-        <v>0.9886829523603189</v>
+        <v>0.9318529640477525</v>
       </c>
       <c r="M17">
-        <v>1.001799830102799</v>
+        <v>0.8832798627176274</v>
       </c>
       <c r="N17">
-        <v>0.9944018009978874</v>
+        <v>0.9382515670401961</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9666857633139041</v>
+        <v>0.909333907958137</v>
       </c>
       <c r="D18">
-        <v>0.9930504341286336</v>
+        <v>0.9483437006273051</v>
       </c>
       <c r="E18">
-        <v>0.9766535144998907</v>
+        <v>0.920055513309201</v>
       </c>
       <c r="F18">
-        <v>0.9898938371506111</v>
+        <v>0.8716562357864031</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031722944238102</v>
+        <v>1.013172934577601</v>
       </c>
       <c r="J18">
-        <v>0.9950692327246158</v>
+        <v>0.9403212261778342</v>
       </c>
       <c r="K18">
-        <v>1.006990214159125</v>
+        <v>0.9631179260830709</v>
       </c>
       <c r="L18">
-        <v>0.9908877864412492</v>
+        <v>0.9354133163676907</v>
       </c>
       <c r="M18">
-        <v>1.003889326550587</v>
+        <v>0.8881310955867552</v>
       </c>
       <c r="N18">
-        <v>0.9964823451711212</v>
+        <v>0.9416565901753592</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9675668920958862</v>
+        <v>0.9106994775306262</v>
       </c>
       <c r="D19">
-        <v>0.9937443857447973</v>
+        <v>0.9493352521418085</v>
       </c>
       <c r="E19">
-        <v>0.9774808411639674</v>
+        <v>0.9213504773804516</v>
       </c>
       <c r="F19">
-        <v>0.9906796634669005</v>
+        <v>0.8734039618271769</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031987451357204</v>
+        <v>1.013560503540327</v>
       </c>
       <c r="J19">
-        <v>0.9957715988904879</v>
+        <v>0.9414617889974559</v>
       </c>
       <c r="K19">
-        <v>1.007606851534913</v>
+        <v>0.9640202427217954</v>
       </c>
       <c r="L19">
-        <v>0.9916332454467708</v>
+        <v>0.9366077678039486</v>
       </c>
       <c r="M19">
-        <v>1.004595822101558</v>
+        <v>0.8897567093694734</v>
       </c>
       <c r="N19">
-        <v>0.9971857087775114</v>
+        <v>0.9427987727250088</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9635964524028564</v>
+        <v>0.9045038436767322</v>
       </c>
       <c r="D20">
-        <v>0.9906181269227008</v>
+        <v>0.9448386873106046</v>
       </c>
       <c r="E20">
-        <v>0.9737537207012643</v>
+        <v>0.9154765587796251</v>
       </c>
       <c r="F20">
-        <v>0.9871397875347911</v>
+        <v>0.8654657074787279</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030794583620068</v>
+        <v>1.011801162708229</v>
       </c>
       <c r="J20">
-        <v>0.9926065652574079</v>
+        <v>0.9362863520121579</v>
       </c>
       <c r="K20">
-        <v>1.004827976005001</v>
+        <v>0.9599261643986233</v>
       </c>
       <c r="L20">
-        <v>0.9882743320164208</v>
+        <v>0.9311884700369699</v>
       </c>
       <c r="M20">
-        <v>1.001412601457113</v>
+        <v>0.8823734750665415</v>
       </c>
       <c r="N20">
-        <v>0.9940161804336379</v>
+        <v>0.9376159860255606</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9501246280620977</v>
+        <v>0.8825561575848891</v>
       </c>
       <c r="D21">
-        <v>0.9800259103452096</v>
+        <v>0.9289575736377701</v>
       </c>
       <c r="E21">
-        <v>0.9611245469633903</v>
+        <v>0.894697292083054</v>
       </c>
       <c r="F21">
-        <v>0.9751508851916884</v>
+        <v>0.8371437475315673</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026730397444308</v>
+        <v>1.005554472783419</v>
       </c>
       <c r="J21">
-        <v>0.9818664658463256</v>
+        <v>0.9179410450542771</v>
       </c>
       <c r="K21">
-        <v>0.9953958431248032</v>
+        <v>0.9454226047089916</v>
       </c>
       <c r="L21">
-        <v>0.9768818538453607</v>
+        <v>0.9119918670007318</v>
       </c>
       <c r="M21">
-        <v>0.990618836440067</v>
+        <v>0.8560433975232742</v>
       </c>
       <c r="N21">
-        <v>0.9832608288494854</v>
+        <v>0.9192446266275638</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9411676711791209</v>
+        <v>0.86696636635528</v>
       </c>
       <c r="D22">
-        <v>0.9729979024024612</v>
+        <v>0.9177275662785561</v>
       </c>
       <c r="E22">
-        <v>0.9527426695319781</v>
+        <v>0.879965269385509</v>
       </c>
       <c r="F22">
-        <v>0.96719938010023</v>
+        <v>0.8168009872033399</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024016437420585</v>
+        <v>1.001110594404274</v>
       </c>
       <c r="J22">
-        <v>0.9747263114237916</v>
+        <v>0.9049018882894919</v>
       </c>
       <c r="K22">
-        <v>0.9891239495284074</v>
+        <v>0.9351262543896212</v>
       </c>
       <c r="L22">
-        <v>0.9693122621987703</v>
+        <v>0.898359297373016</v>
       </c>
       <c r="M22">
-        <v>0.9834498836727189</v>
+        <v>0.8371485887523713</v>
       </c>
       <c r="N22">
-        <v>0.976110534588684</v>
+        <v>0.9061869527645601</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9459659718422097</v>
+        <v>0.8754340612462704</v>
       </c>
       <c r="D23">
-        <v>0.9767613355532347</v>
+        <v>0.9238216421186044</v>
       </c>
       <c r="E23">
-        <v>0.9572314055146788</v>
+        <v>0.8879641555934749</v>
       </c>
       <c r="F23">
-        <v>0.9714570687861516</v>
+        <v>0.827876088916608</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02547134108278</v>
+        <v>1.003524578693787</v>
       </c>
       <c r="J23">
-        <v>0.9785511888618329</v>
+        <v>0.9119848700045482</v>
       </c>
       <c r="K23">
-        <v>0.9924837921736926</v>
+        <v>0.9407177912257561</v>
       </c>
       <c r="L23">
-        <v>0.9733667865531733</v>
+        <v>0.9057634672213839</v>
       </c>
       <c r="M23">
-        <v>0.9872895036793178</v>
+        <v>0.8474331845486278</v>
       </c>
       <c r="N23">
-        <v>0.9799408437914071</v>
+        <v>0.9132799931260812</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.963814861526796</v>
+        <v>0.9048475430272372</v>
       </c>
       <c r="D24">
-        <v>0.9907900482824615</v>
+        <v>0.9450879861207589</v>
       </c>
       <c r="E24">
-        <v>0.9739586860860753</v>
+        <v>0.9158023184931339</v>
       </c>
       <c r="F24">
-        <v>0.9873344365477761</v>
+        <v>0.8659066772882317</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030860265861075</v>
+        <v>1.011898820753782</v>
       </c>
       <c r="J24">
-        <v>0.9927806768227418</v>
+        <v>0.9365735000172639</v>
       </c>
       <c r="K24">
-        <v>1.00498085474057</v>
+        <v>0.9601532946181743</v>
       </c>
       <c r="L24">
-        <v>0.9884590888075895</v>
+        <v>0.9314891038068415</v>
       </c>
       <c r="M24">
-        <v>1.001587685395263</v>
+        <v>0.8827835859307179</v>
       </c>
       <c r="N24">
-        <v>0.9941905392573654</v>
+        <v>0.9379035418137703</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9827410692037415</v>
+        <v>0.933480926466849</v>
       </c>
       <c r="D25">
-        <v>1.005708674483899</v>
+        <v>0.9659126723150292</v>
       </c>
       <c r="E25">
-        <v>0.9917458507350581</v>
+        <v>0.9429789963158989</v>
       </c>
       <c r="F25">
-        <v>1.004234341182475</v>
+        <v>0.9024173201778606</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036520631977957</v>
+        <v>1.020003923765439</v>
       </c>
       <c r="J25">
-        <v>1.007863559985493</v>
+        <v>0.960474803136382</v>
       </c>
       <c r="K25">
-        <v>1.018219012328772</v>
+        <v>0.9790642505034275</v>
       </c>
       <c r="L25">
-        <v>1.004473667565078</v>
+        <v>0.9565320656242444</v>
       </c>
       <c r="M25">
-        <v>1.016767278167029</v>
+        <v>0.9167463299743261</v>
       </c>
       <c r="N25">
-        <v>1.009294841844239</v>
+        <v>0.9618387875248354</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9533967847523507</v>
+        <v>1.035150047760299</v>
       </c>
       <c r="D2">
-        <v>0.9804507861798246</v>
+        <v>1.035217875524962</v>
       </c>
       <c r="E2">
-        <v>0.9619248579735045</v>
+        <v>1.038796085417311</v>
       </c>
       <c r="F2">
-        <v>0.9275975921595164</v>
+        <v>1.033814328158322</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025588419556613</v>
+        <v>1.031332201869268</v>
       </c>
       <c r="J2">
-        <v>0.9770667139420404</v>
+        <v>1.040265397003256</v>
       </c>
       <c r="K2">
-        <v>0.99218936267515</v>
+        <v>1.038015111781827</v>
       </c>
       <c r="L2">
-        <v>0.9739414227388806</v>
+        <v>1.041583099354447</v>
       </c>
       <c r="M2">
-        <v>0.9401670981671422</v>
+        <v>1.036615595094452</v>
       </c>
       <c r="N2">
-        <v>0.9784542607469564</v>
+        <v>1.04174269318714</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.96660902297113</v>
+        <v>1.037332733767326</v>
       </c>
       <c r="D3">
-        <v>0.9901125135822284</v>
+        <v>1.036802516734667</v>
       </c>
       <c r="E3">
-        <v>0.97451276213057</v>
+        <v>1.040929472981604</v>
       </c>
       <c r="F3">
-        <v>0.944231023033321</v>
+        <v>1.036644642044381</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029257573398026</v>
+        <v>1.031810258412847</v>
       </c>
       <c r="J3">
-        <v>0.9880532854118569</v>
+        <v>1.042085291554179</v>
       </c>
       <c r="K3">
-        <v>1.000873489683809</v>
+        <v>1.039407041643166</v>
       </c>
       <c r="L3">
-        <v>0.985482489479434</v>
+        <v>1.043523084670722</v>
       </c>
       <c r="M3">
-        <v>0.9556309733115855</v>
+        <v>1.03924958629779</v>
       </c>
       <c r="N3">
-        <v>0.9894564344084374</v>
+        <v>1.04356517219704</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9746824636010452</v>
+        <v>1.038737378077017</v>
       </c>
       <c r="D4">
-        <v>0.9960209790948646</v>
+        <v>1.037821337636674</v>
       </c>
       <c r="E4">
-        <v>0.9822121617138589</v>
+        <v>1.042302654616618</v>
       </c>
       <c r="F4">
-        <v>0.9543734565663977</v>
+        <v>1.038467218635102</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031481922248511</v>
+        <v>1.032115435835513</v>
       </c>
       <c r="J4">
-        <v>0.9947567409429167</v>
+        <v>1.043255161443126</v>
       </c>
       <c r="K4">
-        <v>1.006167665815764</v>
+        <v>1.040300705067488</v>
       </c>
       <c r="L4">
-        <v>0.992530119462094</v>
+        <v>1.044770784345284</v>
       </c>
       <c r="M4">
-        <v>0.96505564006028</v>
+        <v>1.040944959960219</v>
       </c>
       <c r="N4">
-        <v>0.9961694096152485</v>
+        <v>1.044736703435415</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.977974749040365</v>
+        <v>1.039326090025138</v>
       </c>
       <c r="D5">
-        <v>0.9984311009912691</v>
+        <v>1.038248112246327</v>
       </c>
       <c r="E5">
-        <v>0.9853535378827868</v>
+        <v>1.042878242182896</v>
       </c>
       <c r="F5">
-        <v>0.9585055940146054</v>
+        <v>1.039231377513639</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03238457762379</v>
+        <v>1.032242748365044</v>
       </c>
       <c r="J5">
-        <v>0.9974878974930658</v>
+        <v>1.043745162588803</v>
       </c>
       <c r="K5">
-        <v>1.008323421596792</v>
+        <v>1.040674751830281</v>
       </c>
       <c r="L5">
-        <v>0.9954028777822476</v>
+        <v>1.04529353614442</v>
       </c>
       <c r="M5">
-        <v>0.9688940998214252</v>
+        <v>1.041655598619763</v>
       </c>
       <c r="N5">
-        <v>0.9989044447209666</v>
+        <v>1.045227400438923</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9785218813144596</v>
+        <v>1.03942483300041</v>
       </c>
       <c r="D6">
-        <v>0.9988316601924531</v>
+        <v>1.038319680270984</v>
       </c>
       <c r="E6">
-        <v>0.9858756821592387</v>
+        <v>1.042974787470591</v>
       </c>
       <c r="F6">
-        <v>0.9591921035933747</v>
+        <v>1.039359564548192</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032534321942571</v>
+        <v>1.03226406731481</v>
       </c>
       <c r="J6">
-        <v>0.997941631254845</v>
+        <v>1.043827330734342</v>
       </c>
       <c r="K6">
-        <v>1.008681486281234</v>
+        <v>1.040737460029199</v>
       </c>
       <c r="L6">
-        <v>0.9958802165745508</v>
+        <v>1.04538120513228</v>
       </c>
       <c r="M6">
-        <v>0.9695317407131204</v>
+        <v>1.041774796682551</v>
       </c>
       <c r="N6">
-        <v>0.9993588228367318</v>
+        <v>1.045309685272653</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9747268408496925</v>
+        <v>1.038745251492647</v>
       </c>
       <c r="D7">
-        <v>0.9960534632432044</v>
+        <v>1.037827046222044</v>
       </c>
       <c r="E7">
-        <v>0.9822544985863528</v>
+        <v>1.042310352263437</v>
       </c>
       <c r="F7">
-        <v>0.9544291681559035</v>
+        <v>1.03847743734704</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031494107062711</v>
+        <v>1.032117140843488</v>
       </c>
       <c r="J7">
-        <v>0.9947935645140384</v>
+        <v>1.043261715933717</v>
       </c>
       <c r="K7">
-        <v>1.006196736456419</v>
+        <v>1.040305709541402</v>
       </c>
       <c r="L7">
-        <v>0.9925688467716608</v>
+        <v>1.044777776327775</v>
       </c>
       <c r="M7">
-        <v>0.9651073972876761</v>
+        <v>1.040954463710512</v>
       </c>
       <c r="N7">
-        <v>0.9962062854800651</v>
+        <v>1.044743267234134</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9579684729814996</v>
+        <v>1.035889316897537</v>
       </c>
       <c r="D8">
-        <v>0.9837926659501767</v>
+        <v>1.035754786378509</v>
       </c>
       <c r="E8">
-        <v>0.9662787950903404</v>
+        <v>1.039518602262367</v>
       </c>
       <c r="F8">
-        <v>0.9333586258534657</v>
+        <v>1.03477271019649</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026861714552513</v>
+        <v>1.031494630859608</v>
       </c>
       <c r="J8">
-        <v>0.9808703789317066</v>
+        <v>1.040882060498105</v>
       </c>
       <c r="K8">
-        <v>0.9951967455205231</v>
+        <v>1.038486989381384</v>
       </c>
       <c r="L8">
-        <v>0.9779357818791289</v>
+        <v>1.042240323556056</v>
       </c>
       <c r="M8">
-        <v>0.9455239451098475</v>
+        <v>1.037507661749536</v>
       </c>
       <c r="N8">
-        <v>0.9822633273771947</v>
+        <v>1.042360232414853</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9240915763539248</v>
+        <v>1.030795881022993</v>
       </c>
       <c r="D9">
-        <v>0.959072600139771</v>
+        <v>1.032051689681033</v>
       </c>
       <c r="E9">
-        <v>0.934059155449991</v>
+        <v>1.034541704547588</v>
       </c>
       <c r="F9">
-        <v>0.8904903212785175</v>
+        <v>1.028174155688182</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017354010541277</v>
+        <v>1.030365341112394</v>
       </c>
       <c r="J9">
-        <v>0.9526422758572599</v>
+        <v>1.036627971253785</v>
       </c>
       <c r="K9">
-        <v>0.9728665365388155</v>
+        <v>1.035227201379011</v>
       </c>
       <c r="L9">
-        <v>0.9483210689771532</v>
+        <v>1.037709046822569</v>
       </c>
       <c r="M9">
-        <v>0.9056508961397222</v>
+        <v>1.031362475511802</v>
       </c>
       <c r="N9">
-        <v>0.9539951371585735</v>
+        <v>1.038100101875856</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8972065931436572</v>
+        <v>1.02735654660937</v>
       </c>
       <c r="D10">
-        <v>0.9395499040113294</v>
+        <v>1.029546397040198</v>
       </c>
       <c r="E10">
-        <v>0.9085627787598909</v>
+        <v>1.031182502954664</v>
       </c>
       <c r="F10">
-        <v>0.8560857397763839</v>
+        <v>1.023723913373111</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.009726308960838</v>
+        <v>1.029590009960894</v>
       </c>
       <c r="J10">
-        <v>0.9301886656325392</v>
+        <v>1.033748632537951</v>
       </c>
       <c r="K10">
-        <v>0.9551036807192421</v>
+        <v>1.033015213159288</v>
       </c>
       <c r="L10">
-        <v>0.9248056083042951</v>
+        <v>1.034645402644122</v>
       </c>
       <c r="M10">
-        <v>0.8736508521190653</v>
+        <v>1.027213954086146</v>
       </c>
       <c r="N10">
-        <v>0.9315096402318688</v>
+        <v>1.03521667416878</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8840408775951821</v>
+        <v>1.025856285806598</v>
       </c>
       <c r="D11">
-        <v>0.9300293814374104</v>
+        <v>1.028452468747356</v>
       </c>
       <c r="E11">
-        <v>0.8961015379091524</v>
+        <v>1.029717548819672</v>
       </c>
       <c r="F11">
-        <v>0.8390706185724418</v>
+        <v>1.021783880076485</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.005977530765149</v>
+        <v>1.029248789077376</v>
       </c>
       <c r="J11">
-        <v>0.9191825467696534</v>
+        <v>1.032491043162088</v>
       </c>
       <c r="K11">
-        <v>0.9464035643385326</v>
+        <v>1.03204777964048</v>
       </c>
       <c r="L11">
-        <v>0.9132903611197611</v>
+        <v>1.033308099794569</v>
       </c>
       <c r="M11">
-        <v>0.8578339877068057</v>
+        <v>1.025404497799655</v>
       </c>
       <c r="N11">
-        <v>0.9204878914177783</v>
+        <v>1.033957298871756</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8788523032850295</v>
+        <v>1.025297314212309</v>
       </c>
       <c r="D12">
-        <v>0.9262854866776589</v>
+        <v>1.028044726732119</v>
       </c>
       <c r="E12">
-        <v>0.8911951099772636</v>
+        <v>1.029171785688024</v>
       </c>
       <c r="F12">
-        <v>0.8323292700297698</v>
+        <v>1.021061227833</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.004498914523742</v>
+        <v>1.029121204161981</v>
       </c>
       <c r="J12">
-        <v>0.9148436845694958</v>
+        <v>1.032022246384035</v>
       </c>
       <c r="K12">
-        <v>0.9429756853309473</v>
+        <v>1.031686948899015</v>
       </c>
       <c r="L12">
-        <v>0.908752696568495</v>
+        <v>1.032809705755955</v>
       </c>
       <c r="M12">
-        <v>0.8515700338520729</v>
+        <v>1.024730341738075</v>
       </c>
       <c r="N12">
-        <v>0.9161428675356218</v>
+        <v>1.033487836348506</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.879980259620199</v>
+        <v>1.025417293691138</v>
       </c>
       <c r="D13">
-        <v>0.9270989739748464</v>
+        <v>1.028132253131444</v>
       </c>
       <c r="E13">
-        <v>0.8922615109387344</v>
+        <v>1.02928892761168</v>
       </c>
       <c r="F13">
-        <v>0.8337966193091558</v>
+        <v>1.02121633265053</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.004820393765413</v>
+        <v>1.029148609818681</v>
       </c>
       <c r="J13">
-        <v>0.9157869785681779</v>
+        <v>1.032122881316743</v>
       </c>
       <c r="K13">
-        <v>0.943720822531854</v>
+        <v>1.031764416013609</v>
       </c>
       <c r="L13">
-        <v>0.9097391216564323</v>
+        <v>1.032916688896037</v>
       </c>
       <c r="M13">
-        <v>0.8529333249677415</v>
+        <v>1.02487504415334</v>
       </c>
       <c r="N13">
-        <v>0.9170875011199794</v>
+        <v>1.033588614194362</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8836185959963622</v>
+        <v>1.025810116200482</v>
       </c>
       <c r="D14">
-        <v>0.9297245004746234</v>
+        <v>1.028418793618786</v>
       </c>
       <c r="E14">
-        <v>0.8957021232748178</v>
+        <v>1.029672469096759</v>
       </c>
       <c r="F14">
-        <v>0.8385227556614476</v>
+        <v>1.021724187433059</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.005857209984142</v>
+        <v>1.029238260094393</v>
       </c>
       <c r="J14">
-        <v>0.9188294469573606</v>
+        <v>1.032452326660083</v>
       </c>
       <c r="K14">
-        <v>0.9461245565473437</v>
+        <v>1.032017983722021</v>
       </c>
       <c r="L14">
-        <v>0.9129210430353663</v>
+        <v>1.033266936543001</v>
       </c>
       <c r="M14">
-        <v>0.8573248597023941</v>
+        <v>1.025348813959779</v>
       </c>
       <c r="N14">
-        <v>0.9201342901632505</v>
+        <v>1.033918527387878</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8858181316915199</v>
+        <v>1.026051919149145</v>
       </c>
       <c r="D15">
-        <v>0.9313128708235454</v>
+        <v>1.028595152895528</v>
       </c>
       <c r="E15">
-        <v>0.897782737853267</v>
+        <v>1.02990856623257</v>
       </c>
       <c r="F15">
-        <v>0.8413749035543595</v>
+        <v>1.022036821203773</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.006483880281111</v>
+        <v>1.029293384806645</v>
       </c>
       <c r="J15">
-        <v>0.9206685819979905</v>
+        <v>1.032655085817368</v>
       </c>
       <c r="K15">
-        <v>0.9475778624140656</v>
+        <v>1.032174017561595</v>
       </c>
       <c r="L15">
-        <v>0.9148447291786721</v>
+        <v>1.033482514200359</v>
       </c>
       <c r="M15">
-        <v>0.8599754701908723</v>
+        <v>1.025640446205</v>
       </c>
       <c r="N15">
-        <v>0.9219760369865899</v>
+        <v>1.034121574486423</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.898043037851097</v>
+        <v>1.027455877474833</v>
       </c>
       <c r="D16">
-        <v>0.940155713550575</v>
+        <v>1.029618802071729</v>
       </c>
       <c r="E16">
-        <v>0.9093550169221651</v>
+        <v>1.031279503672759</v>
       </c>
       <c r="F16">
-        <v>0.857162658400171</v>
+        <v>1.023852385530582</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.009964266030952</v>
+        <v>1.029612538624789</v>
       </c>
       <c r="J16">
-        <v>0.9308877131578914</v>
+        <v>1.033831862719233</v>
       </c>
       <c r="K16">
-        <v>0.9556564629152502</v>
+        <v>1.033079212599629</v>
       </c>
       <c r="L16">
-        <v>0.9255372338491734</v>
+        <v>1.034733924919052</v>
       </c>
       <c r="M16">
-        <v>0.8746522014559686</v>
+        <v>1.027333759190414</v>
       </c>
       <c r="N16">
-        <v>0.9322096804848888</v>
+        <v>1.035300022546467</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9052635260142822</v>
+        <v>1.028333558736651</v>
       </c>
       <c r="D17">
-        <v>0.945389738389852</v>
+        <v>1.030258441787809</v>
       </c>
       <c r="E17">
-        <v>0.9161966035424626</v>
+        <v>1.032136636538692</v>
       </c>
       <c r="F17">
-        <v>0.8664402915290742</v>
+        <v>1.024987693639429</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.012017008486303</v>
+        <v>1.029811253537893</v>
       </c>
       <c r="J17">
-        <v>0.9369210317088251</v>
+        <v>1.034567094983339</v>
       </c>
       <c r="K17">
-        <v>0.96042819109745</v>
+        <v>1.033644414424352</v>
       </c>
       <c r="L17">
-        <v>0.9318529640477525</v>
+        <v>1.035515996273294</v>
       </c>
       <c r="M17">
-        <v>0.8832798627176274</v>
+        <v>1.028392366703483</v>
       </c>
       <c r="N17">
-        <v>0.9382515670401961</v>
+        <v>1.03603629892472</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.909333907958137</v>
+        <v>1.028844437149382</v>
       </c>
       <c r="D18">
-        <v>0.9483437006273051</v>
+        <v>1.030630655479618</v>
       </c>
       <c r="E18">
-        <v>0.920055513309201</v>
+        <v>1.03263558796827</v>
       </c>
       <c r="F18">
-        <v>0.8716562357864031</v>
+        <v>1.025648645900272</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.013172934577601</v>
+        <v>1.02992663115435</v>
       </c>
       <c r="J18">
-        <v>0.9403212261778342</v>
+        <v>1.03499490309446</v>
       </c>
       <c r="K18">
-        <v>0.9631179260830709</v>
+        <v>1.033973160617822</v>
       </c>
       <c r="L18">
-        <v>0.9354133163676907</v>
+        <v>1.035971133844314</v>
       </c>
       <c r="M18">
-        <v>0.8881310955867552</v>
+        <v>1.029008573722329</v>
       </c>
       <c r="N18">
-        <v>0.9416565901753592</v>
+        <v>1.036464714572428</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9106994775306262</v>
+        <v>1.029018455621186</v>
       </c>
       <c r="D19">
-        <v>0.9493352521418085</v>
+        <v>1.03075742306091</v>
       </c>
       <c r="E19">
-        <v>0.9213504773804516</v>
+        <v>1.032805549501362</v>
       </c>
       <c r="F19">
-        <v>0.8734039618271769</v>
+        <v>1.025873803188395</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.013560503540327</v>
+        <v>1.029965882569238</v>
       </c>
       <c r="J19">
-        <v>0.9414617889974559</v>
+        <v>1.035140599536894</v>
       </c>
       <c r="K19">
-        <v>0.9640202427217954</v>
+        <v>1.034085098517272</v>
       </c>
       <c r="L19">
-        <v>0.9366077678039486</v>
+        <v>1.036126150513206</v>
       </c>
       <c r="M19">
-        <v>0.8897567093694734</v>
+        <v>1.02921847270025</v>
       </c>
       <c r="N19">
-        <v>0.9427987727250088</v>
+        <v>1.036610617920523</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9045038436767322</v>
+        <v>1.028239501689751</v>
       </c>
       <c r="D20">
-        <v>0.9448386873106046</v>
+        <v>1.03018990551998</v>
       </c>
       <c r="E20">
-        <v>0.9154765587796251</v>
+        <v>1.032044778065947</v>
       </c>
       <c r="F20">
-        <v>0.8654657074787279</v>
+        <v>1.024866016057169</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.011801162708229</v>
+        <v>1.029789988172803</v>
       </c>
       <c r="J20">
-        <v>0.9362863520121579</v>
+        <v>1.03448831947302</v>
       </c>
       <c r="K20">
-        <v>0.9599261643986233</v>
+        <v>1.0335838697072</v>
       </c>
       <c r="L20">
-        <v>0.9311884700369699</v>
+        <v>1.03543219445382</v>
       </c>
       <c r="M20">
-        <v>0.8823734750665415</v>
+        <v>1.028278919068844</v>
       </c>
       <c r="N20">
-        <v>0.9376159860255606</v>
+        <v>1.035957411544141</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8825561575848891</v>
+        <v>1.025694487351964</v>
       </c>
       <c r="D21">
-        <v>0.9289575736377701</v>
+        <v>1.028334453774701</v>
       </c>
       <c r="E21">
-        <v>0.894697292083054</v>
+        <v>1.02955957066308</v>
       </c>
       <c r="F21">
-        <v>0.8371437475315673</v>
+        <v>1.021574693729498</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.005554472783419</v>
+        <v>1.029211883635649</v>
       </c>
       <c r="J21">
-        <v>0.9179410450542771</v>
+        <v>1.032355359758031</v>
       </c>
       <c r="K21">
-        <v>0.9454226047089916</v>
+        <v>1.031943355581919</v>
       </c>
       <c r="L21">
-        <v>0.9119918670007318</v>
+        <v>1.033163843569123</v>
       </c>
       <c r="M21">
-        <v>0.8560433975232742</v>
+        <v>1.02520935755845</v>
       </c>
       <c r="N21">
-        <v>0.9192446266275638</v>
+        <v>1.033821422781702</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.86696636635528</v>
+        <v>1.024084426470176</v>
       </c>
       <c r="D22">
-        <v>0.9177275662785561</v>
+        <v>1.027159689890682</v>
       </c>
       <c r="E22">
-        <v>0.879965269385509</v>
+        <v>1.027987657901589</v>
       </c>
       <c r="F22">
-        <v>0.8168009872033399</v>
+        <v>1.019493481011611</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.001110594404274</v>
+        <v>1.028843537379363</v>
       </c>
       <c r="J22">
-        <v>0.9049018882894919</v>
+        <v>1.031004585104833</v>
       </c>
       <c r="K22">
-        <v>0.9351262543896212</v>
+        <v>1.030903301292901</v>
       </c>
       <c r="L22">
-        <v>0.898359297373016</v>
+        <v>1.031728010811755</v>
       </c>
       <c r="M22">
-        <v>0.8371485887523713</v>
+        <v>1.023267542694568</v>
       </c>
       <c r="N22">
-        <v>0.9061869527645601</v>
+        <v>1.032468729873561</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8754340612462704</v>
+        <v>1.024938907960144</v>
       </c>
       <c r="D23">
-        <v>0.9238216421186044</v>
+        <v>1.027783241619341</v>
       </c>
       <c r="E23">
-        <v>0.8879641555934749</v>
+        <v>1.028821863812075</v>
       </c>
       <c r="F23">
-        <v>0.827876088916608</v>
+        <v>1.020597918558073</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.003524578693787</v>
+        <v>1.029039271105062</v>
       </c>
       <c r="J23">
-        <v>0.9119848700045482</v>
+        <v>1.031721591549517</v>
       </c>
       <c r="K23">
-        <v>0.9407177912257561</v>
+        <v>1.031455481085675</v>
       </c>
       <c r="L23">
-        <v>0.9057634672213839</v>
+        <v>1.032490102411353</v>
       </c>
       <c r="M23">
-        <v>0.8474331845486278</v>
+        <v>1.024298084267369</v>
       </c>
       <c r="N23">
-        <v>0.9132799931260812</v>
+        <v>1.033186754549638</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9048475430272372</v>
+        <v>1.028282005287893</v>
       </c>
       <c r="D24">
-        <v>0.9450879861207589</v>
+        <v>1.030220876818503</v>
       </c>
       <c r="E24">
-        <v>0.9158023184931339</v>
+        <v>1.032086288042301</v>
       </c>
       <c r="F24">
-        <v>0.8659066772882317</v>
+        <v>1.024921000789212</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011898820753782</v>
+        <v>1.029799598711202</v>
       </c>
       <c r="J24">
-        <v>0.9365735000172639</v>
+        <v>1.034523917947954</v>
       </c>
       <c r="K24">
-        <v>0.9601532946181743</v>
+        <v>1.033611230119837</v>
       </c>
       <c r="L24">
-        <v>0.9314891038068415</v>
+        <v>1.035470064073577</v>
       </c>
       <c r="M24">
-        <v>0.8827835859307179</v>
+        <v>1.028330185063939</v>
       </c>
       <c r="N24">
-        <v>0.9379035418137703</v>
+        <v>1.035993060572992</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.933480926466849</v>
+        <v>1.032120155098049</v>
       </c>
       <c r="D25">
-        <v>0.9659126723150292</v>
+        <v>1.033015329255195</v>
       </c>
       <c r="E25">
-        <v>0.9429789963158989</v>
+        <v>1.035835430217612</v>
       </c>
       <c r="F25">
-        <v>0.9024173201778606</v>
+        <v>1.029888774263944</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.020003923765439</v>
+        <v>1.030661196364006</v>
       </c>
       <c r="J25">
-        <v>0.960474803136382</v>
+        <v>1.037735206104094</v>
       </c>
       <c r="K25">
-        <v>0.9790642505034275</v>
+        <v>1.036076635760891</v>
       </c>
       <c r="L25">
-        <v>0.9565320656242444</v>
+        <v>1.03888784815828</v>
       </c>
       <c r="M25">
-        <v>0.9167463299743261</v>
+        <v>1.032959997472561</v>
       </c>
       <c r="N25">
-        <v>0.9618387875248354</v>
+        <v>1.039208909126654</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035150047760299</v>
+        <v>0.9533967847523522</v>
       </c>
       <c r="D2">
-        <v>1.035217875524962</v>
+        <v>0.9804507861798261</v>
       </c>
       <c r="E2">
-        <v>1.038796085417311</v>
+        <v>0.9619248579735058</v>
       </c>
       <c r="F2">
-        <v>1.033814328158322</v>
+        <v>0.9275975921595174</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031332201869268</v>
+        <v>1.025588419556613</v>
       </c>
       <c r="J2">
-        <v>1.040265397003256</v>
+        <v>0.9770667139420419</v>
       </c>
       <c r="K2">
-        <v>1.038015111781827</v>
+        <v>0.9921893626751512</v>
       </c>
       <c r="L2">
-        <v>1.041583099354447</v>
+        <v>0.9739414227388818</v>
       </c>
       <c r="M2">
-        <v>1.036615595094452</v>
+        <v>0.9401670981671432</v>
       </c>
       <c r="N2">
-        <v>1.04174269318714</v>
+        <v>0.9784542607469582</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037332733767326</v>
+        <v>0.96660902297113</v>
       </c>
       <c r="D3">
-        <v>1.036802516734667</v>
+        <v>0.9901125135822283</v>
       </c>
       <c r="E3">
-        <v>1.040929472981604</v>
+        <v>0.9745127621305699</v>
       </c>
       <c r="F3">
-        <v>1.036644642044381</v>
+        <v>0.9442310230333213</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031810258412847</v>
+        <v>1.029257573398026</v>
       </c>
       <c r="J3">
-        <v>1.042085291554179</v>
+        <v>0.9880532854118568</v>
       </c>
       <c r="K3">
-        <v>1.039407041643166</v>
+        <v>1.000873489683809</v>
       </c>
       <c r="L3">
-        <v>1.043523084670722</v>
+        <v>0.9854824894794335</v>
       </c>
       <c r="M3">
-        <v>1.03924958629779</v>
+        <v>0.955630973311586</v>
       </c>
       <c r="N3">
-        <v>1.04356517219704</v>
+        <v>0.9894564344084377</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038737378077017</v>
+        <v>0.9746824636010454</v>
       </c>
       <c r="D4">
-        <v>1.037821337636674</v>
+        <v>0.9960209790948648</v>
       </c>
       <c r="E4">
-        <v>1.042302654616618</v>
+        <v>0.9822121617138591</v>
       </c>
       <c r="F4">
-        <v>1.038467218635102</v>
+        <v>0.9543734565663976</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032115435835513</v>
+        <v>1.031481922248511</v>
       </c>
       <c r="J4">
-        <v>1.043255161443126</v>
+        <v>0.9947567409429168</v>
       </c>
       <c r="K4">
-        <v>1.040300705067488</v>
+        <v>1.006167665815763</v>
       </c>
       <c r="L4">
-        <v>1.044770784345284</v>
+        <v>0.9925301194620942</v>
       </c>
       <c r="M4">
-        <v>1.040944959960219</v>
+        <v>0.9650556400602798</v>
       </c>
       <c r="N4">
-        <v>1.044736703435415</v>
+        <v>0.9961694096152487</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039326090025138</v>
+        <v>0.9779747490403679</v>
       </c>
       <c r="D5">
-        <v>1.038248112246327</v>
+        <v>0.9984311009912715</v>
       </c>
       <c r="E5">
-        <v>1.042878242182896</v>
+        <v>0.9853535378827893</v>
       </c>
       <c r="F5">
-        <v>1.039231377513639</v>
+        <v>0.9585055940146086</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032242748365044</v>
+        <v>1.032384577623791</v>
       </c>
       <c r="J5">
-        <v>1.043745162588803</v>
+        <v>0.9974878974930683</v>
       </c>
       <c r="K5">
-        <v>1.040674751830281</v>
+        <v>1.008323421596795</v>
       </c>
       <c r="L5">
-        <v>1.04529353614442</v>
+        <v>0.9954028777822503</v>
       </c>
       <c r="M5">
-        <v>1.041655598619763</v>
+        <v>0.9688940998214283</v>
       </c>
       <c r="N5">
-        <v>1.045227400438923</v>
+        <v>0.9989044447209694</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03942483300041</v>
+        <v>0.978521881314462</v>
       </c>
       <c r="D6">
-        <v>1.038319680270984</v>
+        <v>0.9988316601924548</v>
       </c>
       <c r="E6">
-        <v>1.042974787470591</v>
+        <v>0.9858756821592414</v>
       </c>
       <c r="F6">
-        <v>1.039359564548192</v>
+        <v>0.959192103593377</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03226406731481</v>
+        <v>1.032534321942572</v>
       </c>
       <c r="J6">
-        <v>1.043827330734342</v>
+        <v>0.9979416312548473</v>
       </c>
       <c r="K6">
-        <v>1.040737460029199</v>
+        <v>1.008681486281236</v>
       </c>
       <c r="L6">
-        <v>1.04538120513228</v>
+        <v>0.9958802165745535</v>
       </c>
       <c r="M6">
-        <v>1.041774796682551</v>
+        <v>0.9695317407131228</v>
       </c>
       <c r="N6">
-        <v>1.045309685272653</v>
+        <v>0.9993588228367342</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038745251492647</v>
+        <v>0.974726840849692</v>
       </c>
       <c r="D7">
-        <v>1.037827046222044</v>
+        <v>0.9960534632432038</v>
       </c>
       <c r="E7">
-        <v>1.042310352263437</v>
+        <v>0.9822544985863523</v>
       </c>
       <c r="F7">
-        <v>1.03847743734704</v>
+        <v>0.9544291681559025</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032117140843488</v>
+        <v>1.031494107062711</v>
       </c>
       <c r="J7">
-        <v>1.043261715933717</v>
+        <v>0.9947935645140378</v>
       </c>
       <c r="K7">
-        <v>1.040305709541402</v>
+        <v>1.006196736456418</v>
       </c>
       <c r="L7">
-        <v>1.044777776327775</v>
+        <v>0.9925688467716602</v>
       </c>
       <c r="M7">
-        <v>1.040954463710512</v>
+        <v>0.9651073972876751</v>
       </c>
       <c r="N7">
-        <v>1.044743267234134</v>
+        <v>0.9962062854800645</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035889316897537</v>
+        <v>0.9579684729815</v>
       </c>
       <c r="D8">
-        <v>1.035754786378509</v>
+        <v>0.9837926659501771</v>
       </c>
       <c r="E8">
-        <v>1.039518602262367</v>
+        <v>0.966278795090341</v>
       </c>
       <c r="F8">
-        <v>1.03477271019649</v>
+        <v>0.9333586258534657</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031494630859608</v>
+        <v>1.026861714552513</v>
       </c>
       <c r="J8">
-        <v>1.040882060498105</v>
+        <v>0.9808703789317071</v>
       </c>
       <c r="K8">
-        <v>1.038486989381384</v>
+        <v>0.9951967455205235</v>
       </c>
       <c r="L8">
-        <v>1.042240323556056</v>
+        <v>0.9779357818791293</v>
       </c>
       <c r="M8">
-        <v>1.037507661749536</v>
+        <v>0.9455239451098477</v>
       </c>
       <c r="N8">
-        <v>1.042360232414853</v>
+        <v>0.9822633273771952</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.030795881022993</v>
+        <v>0.9240915763539246</v>
       </c>
       <c r="D9">
-        <v>1.032051689681033</v>
+        <v>0.9590726001397715</v>
       </c>
       <c r="E9">
-        <v>1.034541704547588</v>
+        <v>0.9340591554499909</v>
       </c>
       <c r="F9">
-        <v>1.028174155688182</v>
+        <v>0.8904903212785178</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030365341112394</v>
+        <v>1.017354010541277</v>
       </c>
       <c r="J9">
-        <v>1.036627971253785</v>
+        <v>0.9526422758572602</v>
       </c>
       <c r="K9">
-        <v>1.035227201379011</v>
+        <v>0.9728665365388159</v>
       </c>
       <c r="L9">
-        <v>1.037709046822569</v>
+        <v>0.9483210689771532</v>
       </c>
       <c r="M9">
-        <v>1.031362475511802</v>
+        <v>0.9056508961397226</v>
       </c>
       <c r="N9">
-        <v>1.038100101875856</v>
+        <v>0.9539951371585738</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02735654660937</v>
+        <v>0.897206593143656</v>
       </c>
       <c r="D10">
-        <v>1.029546397040198</v>
+        <v>0.9395499040113281</v>
       </c>
       <c r="E10">
-        <v>1.031182502954664</v>
+        <v>0.9085627787598896</v>
       </c>
       <c r="F10">
-        <v>1.023723913373111</v>
+        <v>0.8560857397763825</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029590009960894</v>
+        <v>1.009726308960838</v>
       </c>
       <c r="J10">
-        <v>1.033748632537951</v>
+        <v>0.9301886656325382</v>
       </c>
       <c r="K10">
-        <v>1.033015213159288</v>
+        <v>0.955103680719241</v>
       </c>
       <c r="L10">
-        <v>1.034645402644122</v>
+        <v>0.9248056083042938</v>
       </c>
       <c r="M10">
-        <v>1.027213954086146</v>
+        <v>0.8736508521190641</v>
       </c>
       <c r="N10">
-        <v>1.03521667416878</v>
+        <v>0.9315096402318678</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025856285806598</v>
+        <v>0.8840408775951853</v>
       </c>
       <c r="D11">
-        <v>1.028452468747356</v>
+        <v>0.9300293814374131</v>
       </c>
       <c r="E11">
-        <v>1.029717548819672</v>
+        <v>0.8961015379091558</v>
       </c>
       <c r="F11">
-        <v>1.021783880076485</v>
+        <v>0.8390706185724454</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029248789077376</v>
+        <v>1.00597753076515</v>
       </c>
       <c r="J11">
-        <v>1.032491043162088</v>
+        <v>0.9191825467696565</v>
       </c>
       <c r="K11">
-        <v>1.03204777964048</v>
+        <v>0.946403564338535</v>
       </c>
       <c r="L11">
-        <v>1.033308099794569</v>
+        <v>0.9132903611197645</v>
       </c>
       <c r="M11">
-        <v>1.025404497799655</v>
+        <v>0.8578339877068093</v>
       </c>
       <c r="N11">
-        <v>1.033957298871756</v>
+        <v>0.9204878914177811</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025297314212309</v>
+        <v>0.8788523032850263</v>
       </c>
       <c r="D12">
-        <v>1.028044726732119</v>
+        <v>0.9262854866776563</v>
       </c>
       <c r="E12">
-        <v>1.029171785688024</v>
+        <v>0.8911951099772603</v>
       </c>
       <c r="F12">
-        <v>1.021061227833</v>
+        <v>0.8323292700297659</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029121204161981</v>
+        <v>1.004498914523741</v>
       </c>
       <c r="J12">
-        <v>1.032022246384035</v>
+        <v>0.9148436845694927</v>
       </c>
       <c r="K12">
-        <v>1.031686948899015</v>
+        <v>0.942975685330945</v>
       </c>
       <c r="L12">
-        <v>1.032809705755955</v>
+        <v>0.9087526965684921</v>
       </c>
       <c r="M12">
-        <v>1.024730341738075</v>
+        <v>0.851570033852069</v>
       </c>
       <c r="N12">
-        <v>1.033487836348506</v>
+        <v>0.916142867535619</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025417293691138</v>
+        <v>0.8799802596201997</v>
       </c>
       <c r="D13">
-        <v>1.028132253131444</v>
+        <v>0.9270989739748466</v>
       </c>
       <c r="E13">
-        <v>1.02928892761168</v>
+        <v>0.8922615109387351</v>
       </c>
       <c r="F13">
-        <v>1.02121633265053</v>
+        <v>0.8337966193091569</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029148609818681</v>
+        <v>1.004820393765413</v>
       </c>
       <c r="J13">
-        <v>1.032122881316743</v>
+        <v>0.9157869785681786</v>
       </c>
       <c r="K13">
-        <v>1.031764416013609</v>
+        <v>0.9437208225318544</v>
       </c>
       <c r="L13">
-        <v>1.032916688896037</v>
+        <v>0.9097391216564331</v>
       </c>
       <c r="M13">
-        <v>1.02487504415334</v>
+        <v>0.8529333249677427</v>
       </c>
       <c r="N13">
-        <v>1.033588614194362</v>
+        <v>0.9170875011199802</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025810116200482</v>
+        <v>0.8836185959963632</v>
       </c>
       <c r="D14">
-        <v>1.028418793618786</v>
+        <v>0.9297245004746244</v>
       </c>
       <c r="E14">
-        <v>1.029672469096759</v>
+        <v>0.8957021232748188</v>
       </c>
       <c r="F14">
-        <v>1.021724187433059</v>
+        <v>0.8385227556614492</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029238260094393</v>
+        <v>1.005857209984142</v>
       </c>
       <c r="J14">
-        <v>1.032452326660083</v>
+        <v>0.9188294469573618</v>
       </c>
       <c r="K14">
-        <v>1.032017983722021</v>
+        <v>0.9461245565473444</v>
       </c>
       <c r="L14">
-        <v>1.033266936543001</v>
+        <v>0.9129210430353674</v>
       </c>
       <c r="M14">
-        <v>1.025348813959779</v>
+        <v>0.8573248597023957</v>
       </c>
       <c r="N14">
-        <v>1.033918527387878</v>
+        <v>0.9201342901632519</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026051919149145</v>
+        <v>0.8858181316915211</v>
       </c>
       <c r="D15">
-        <v>1.028595152895528</v>
+        <v>0.9313128708235461</v>
       </c>
       <c r="E15">
-        <v>1.02990856623257</v>
+        <v>0.8977827378532686</v>
       </c>
       <c r="F15">
-        <v>1.022036821203773</v>
+        <v>0.841374903554361</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029293384806645</v>
+        <v>1.006483880281112</v>
       </c>
       <c r="J15">
-        <v>1.032655085817368</v>
+        <v>0.9206685819979917</v>
       </c>
       <c r="K15">
-        <v>1.032174017561595</v>
+        <v>0.9475778624140664</v>
       </c>
       <c r="L15">
-        <v>1.033482514200359</v>
+        <v>0.9148447291786737</v>
       </c>
       <c r="M15">
-        <v>1.025640446205</v>
+        <v>0.8599754701908737</v>
       </c>
       <c r="N15">
-        <v>1.034121574486423</v>
+        <v>0.9219760369865913</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027455877474833</v>
+        <v>0.8980430378510957</v>
       </c>
       <c r="D16">
-        <v>1.029618802071729</v>
+        <v>0.9401557135505738</v>
       </c>
       <c r="E16">
-        <v>1.031279503672759</v>
+        <v>0.9093550169221639</v>
       </c>
       <c r="F16">
-        <v>1.023852385530582</v>
+        <v>0.8571626584001696</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029612538624789</v>
+        <v>1.009964266030951</v>
       </c>
       <c r="J16">
-        <v>1.033831862719233</v>
+        <v>0.9308877131578902</v>
       </c>
       <c r="K16">
-        <v>1.033079212599629</v>
+        <v>0.9556564629152492</v>
       </c>
       <c r="L16">
-        <v>1.034733924919052</v>
+        <v>0.9255372338491722</v>
       </c>
       <c r="M16">
-        <v>1.027333759190414</v>
+        <v>0.8746522014559671</v>
       </c>
       <c r="N16">
-        <v>1.035300022546467</v>
+        <v>0.9322096804848873</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028333558736651</v>
+        <v>0.9052635260142843</v>
       </c>
       <c r="D17">
-        <v>1.030258441787809</v>
+        <v>0.9453897383898535</v>
       </c>
       <c r="E17">
-        <v>1.032136636538692</v>
+        <v>0.9161966035424646</v>
       </c>
       <c r="F17">
-        <v>1.024987693639429</v>
+        <v>0.8664402915290764</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029811253537893</v>
+        <v>1.012017008486304</v>
       </c>
       <c r="J17">
-        <v>1.034567094983339</v>
+        <v>0.936921031708827</v>
       </c>
       <c r="K17">
-        <v>1.033644414424352</v>
+        <v>0.9604281910974515</v>
       </c>
       <c r="L17">
-        <v>1.035515996273294</v>
+        <v>0.9318529640477544</v>
       </c>
       <c r="M17">
-        <v>1.028392366703483</v>
+        <v>0.8832798627176294</v>
       </c>
       <c r="N17">
-        <v>1.03603629892472</v>
+        <v>0.9382515670401981</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028844437149382</v>
+        <v>0.9093339079581343</v>
       </c>
       <c r="D18">
-        <v>1.030630655479618</v>
+        <v>0.9483437006273031</v>
       </c>
       <c r="E18">
-        <v>1.03263558796827</v>
+        <v>0.9200555133091983</v>
       </c>
       <c r="F18">
-        <v>1.025648645900272</v>
+        <v>0.8716562357864003</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02992663115435</v>
+        <v>1.013172934577601</v>
       </c>
       <c r="J18">
-        <v>1.03499490309446</v>
+        <v>0.9403212261778316</v>
       </c>
       <c r="K18">
-        <v>1.033973160617822</v>
+        <v>0.9631179260830689</v>
       </c>
       <c r="L18">
-        <v>1.035971133844314</v>
+        <v>0.9354133163676881</v>
       </c>
       <c r="M18">
-        <v>1.029008573722329</v>
+        <v>0.8881310955867526</v>
       </c>
       <c r="N18">
-        <v>1.036464714572428</v>
+        <v>0.9416565901753566</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029018455621186</v>
+        <v>0.9106994775306245</v>
       </c>
       <c r="D19">
-        <v>1.03075742306091</v>
+        <v>0.9493352521418071</v>
       </c>
       <c r="E19">
-        <v>1.032805549501362</v>
+        <v>0.9213504773804502</v>
       </c>
       <c r="F19">
-        <v>1.025873803188395</v>
+        <v>0.8734039618271751</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029965882569238</v>
+        <v>1.013560503540327</v>
       </c>
       <c r="J19">
-        <v>1.035140599536894</v>
+        <v>0.9414617889974544</v>
       </c>
       <c r="K19">
-        <v>1.034085098517272</v>
+        <v>0.964020242721794</v>
       </c>
       <c r="L19">
-        <v>1.036126150513206</v>
+        <v>0.9366077678039471</v>
       </c>
       <c r="M19">
-        <v>1.02921847270025</v>
+        <v>0.8897567093694713</v>
       </c>
       <c r="N19">
-        <v>1.036610617920523</v>
+        <v>0.9427987727250071</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028239501689751</v>
+        <v>0.9045038436767341</v>
       </c>
       <c r="D20">
-        <v>1.03018990551998</v>
+        <v>0.9448386873106063</v>
       </c>
       <c r="E20">
-        <v>1.032044778065947</v>
+        <v>0.915476558779627</v>
       </c>
       <c r="F20">
-        <v>1.024866016057169</v>
+        <v>0.8654657074787299</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029789988172803</v>
+        <v>1.01180116270823</v>
       </c>
       <c r="J20">
-        <v>1.03448831947302</v>
+        <v>0.93628635201216</v>
       </c>
       <c r="K20">
-        <v>1.0335838697072</v>
+        <v>0.9599261643986249</v>
       </c>
       <c r="L20">
-        <v>1.03543219445382</v>
+        <v>0.9311884700369719</v>
       </c>
       <c r="M20">
-        <v>1.028278919068844</v>
+        <v>0.8823734750665434</v>
       </c>
       <c r="N20">
-        <v>1.035957411544141</v>
+        <v>0.9376159860255632</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025694487351964</v>
+        <v>0.8825561575848875</v>
       </c>
       <c r="D21">
-        <v>1.028334453774701</v>
+        <v>0.9289575736377692</v>
       </c>
       <c r="E21">
-        <v>1.02955957066308</v>
+        <v>0.8946972920830526</v>
       </c>
       <c r="F21">
-        <v>1.021574693729498</v>
+        <v>0.8371437475315657</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029211883635649</v>
+        <v>1.005554472783419</v>
       </c>
       <c r="J21">
-        <v>1.032355359758031</v>
+        <v>0.9179410450542757</v>
       </c>
       <c r="K21">
-        <v>1.031943355581919</v>
+        <v>0.9454226047089904</v>
       </c>
       <c r="L21">
-        <v>1.033163843569123</v>
+        <v>0.9119918670007302</v>
       </c>
       <c r="M21">
-        <v>1.02520935755845</v>
+        <v>0.8560433975232724</v>
       </c>
       <c r="N21">
-        <v>1.033821422781702</v>
+        <v>0.9192446266275623</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024084426470176</v>
+        <v>0.8669663663552806</v>
       </c>
       <c r="D22">
-        <v>1.027159689890682</v>
+        <v>0.9177275662785566</v>
       </c>
       <c r="E22">
-        <v>1.027987657901589</v>
+        <v>0.8799652693855097</v>
       </c>
       <c r="F22">
-        <v>1.019493481011611</v>
+        <v>0.8168009872033405</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028843537379363</v>
+        <v>1.001110594404275</v>
       </c>
       <c r="J22">
-        <v>1.031004585104833</v>
+        <v>0.9049018882894925</v>
       </c>
       <c r="K22">
-        <v>1.030903301292901</v>
+        <v>0.9351262543896216</v>
       </c>
       <c r="L22">
-        <v>1.031728010811755</v>
+        <v>0.8983592973730167</v>
       </c>
       <c r="M22">
-        <v>1.023267542694568</v>
+        <v>0.837148588752372</v>
       </c>
       <c r="N22">
-        <v>1.032468729873561</v>
+        <v>0.906186952764561</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024938907960144</v>
+        <v>0.8754340612462703</v>
       </c>
       <c r="D23">
-        <v>1.027783241619341</v>
+        <v>0.9238216421186043</v>
       </c>
       <c r="E23">
-        <v>1.028821863812075</v>
+        <v>0.8879641555934744</v>
       </c>
       <c r="F23">
-        <v>1.020597918558073</v>
+        <v>0.8278760889166081</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029039271105062</v>
+        <v>1.003524578693787</v>
       </c>
       <c r="J23">
-        <v>1.031721591549517</v>
+        <v>0.911984870004548</v>
       </c>
       <c r="K23">
-        <v>1.031455481085675</v>
+        <v>0.9407177912257558</v>
       </c>
       <c r="L23">
-        <v>1.032490102411353</v>
+        <v>0.9057634672213836</v>
       </c>
       <c r="M23">
-        <v>1.024298084267369</v>
+        <v>0.847433184548628</v>
       </c>
       <c r="N23">
-        <v>1.033186754549638</v>
+        <v>0.9132799931260811</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028282005287893</v>
+        <v>0.9048475430272355</v>
       </c>
       <c r="D24">
-        <v>1.030220876818503</v>
+        <v>0.9450879861207572</v>
       </c>
       <c r="E24">
-        <v>1.032086288042301</v>
+        <v>0.9158023184931317</v>
       </c>
       <c r="F24">
-        <v>1.024921000789212</v>
+        <v>0.8659066772882297</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029799598711202</v>
+        <v>1.011898820753781</v>
       </c>
       <c r="J24">
-        <v>1.034523917947954</v>
+        <v>0.9365735000172619</v>
       </c>
       <c r="K24">
-        <v>1.033611230119837</v>
+        <v>0.9601532946181727</v>
       </c>
       <c r="L24">
-        <v>1.035470064073577</v>
+        <v>0.9314891038068392</v>
       </c>
       <c r="M24">
-        <v>1.028330185063939</v>
+        <v>0.8827835859307159</v>
       </c>
       <c r="N24">
-        <v>1.035993060572992</v>
+        <v>0.9379035418137683</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032120155098049</v>
+        <v>0.9334809264668509</v>
       </c>
       <c r="D25">
-        <v>1.033015329255195</v>
+        <v>0.9659126723150302</v>
       </c>
       <c r="E25">
-        <v>1.035835430217612</v>
+        <v>0.9429789963159007</v>
       </c>
       <c r="F25">
-        <v>1.029888774263944</v>
+        <v>0.9024173201778621</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030661196364006</v>
+        <v>1.02000392376544</v>
       </c>
       <c r="J25">
-        <v>1.037735206104094</v>
+        <v>0.9604748031363838</v>
       </c>
       <c r="K25">
-        <v>1.036076635760891</v>
+        <v>0.9790642505034287</v>
       </c>
       <c r="L25">
-        <v>1.03888784815828</v>
+        <v>0.9565320656242462</v>
       </c>
       <c r="M25">
-        <v>1.032959997472561</v>
+        <v>0.9167463299743278</v>
       </c>
       <c r="N25">
-        <v>1.039208909126654</v>
+        <v>0.9618387875248372</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9533967847523522</v>
+        <v>0.9992848667648203</v>
       </c>
       <c r="D2">
-        <v>0.9804507861798261</v>
+        <v>1.023074101832717</v>
       </c>
       <c r="E2">
-        <v>0.9619248579735058</v>
+        <v>1.00746523379788</v>
       </c>
       <c r="F2">
-        <v>0.9275975921595174</v>
+        <v>1.027763953732667</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025588419556613</v>
+        <v>1.044217831034275</v>
       </c>
       <c r="J2">
-        <v>0.9770667139420419</v>
+        <v>1.021486988403481</v>
       </c>
       <c r="K2">
-        <v>0.9921893626751512</v>
+        <v>1.034221071369816</v>
       </c>
       <c r="L2">
-        <v>0.9739414227388818</v>
+        <v>1.018821536629073</v>
       </c>
       <c r="M2">
-        <v>0.9401670981671432</v>
+        <v>1.038849582592658</v>
       </c>
       <c r="N2">
-        <v>0.9784542607469582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010977745690809</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.039319228186768</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035267497943261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.96660902297113</v>
+        <v>1.00301624174274</v>
       </c>
       <c r="D3">
-        <v>0.9901125135822283</v>
+        <v>1.025490731862441</v>
       </c>
       <c r="E3">
-        <v>0.9745127621305699</v>
+        <v>1.010694829818204</v>
       </c>
       <c r="F3">
-        <v>0.9442310230333213</v>
+        <v>1.030361481103899</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029257573398026</v>
+        <v>1.044784462720818</v>
       </c>
       <c r="J3">
-        <v>0.9880532854118568</v>
+        <v>1.023425017333657</v>
       </c>
       <c r="K3">
-        <v>1.000873489683809</v>
+        <v>1.03580752078236</v>
       </c>
       <c r="L3">
-        <v>0.9854824894794335</v>
+        <v>1.021192672977388</v>
       </c>
       <c r="M3">
-        <v>0.955630973311586</v>
+        <v>1.040620077992809</v>
       </c>
       <c r="N3">
-        <v>0.9894564344084377</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011643340196063</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040720457522523</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036386588879487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9746824636010454</v>
+        <v>1.005390109560154</v>
       </c>
       <c r="D4">
-        <v>0.9960209790948648</v>
+        <v>1.02703165608407</v>
       </c>
       <c r="E4">
-        <v>0.9822121617138591</v>
+        <v>1.012755242188689</v>
       </c>
       <c r="F4">
-        <v>0.9543734565663976</v>
+        <v>1.032020757170903</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031481922248511</v>
+        <v>1.045135217521109</v>
       </c>
       <c r="J4">
-        <v>0.9947567409429168</v>
+        <v>1.024656933585498</v>
       </c>
       <c r="K4">
-        <v>1.006167665815763</v>
+        <v>1.03681442249066</v>
       </c>
       <c r="L4">
-        <v>0.9925301194620942</v>
+        <v>1.022702122090801</v>
       </c>
       <c r="M4">
-        <v>0.9650556400602798</v>
+        <v>1.041747489767361</v>
       </c>
       <c r="N4">
-        <v>0.9961694096152487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012066200401754</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.041612727527296</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037099460022619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9779747490403679</v>
+        <v>1.006381681784378</v>
       </c>
       <c r="D5">
-        <v>0.9984311009912715</v>
+        <v>1.027678008124855</v>
       </c>
       <c r="E5">
-        <v>0.9853535378827893</v>
+        <v>1.013617623433725</v>
       </c>
       <c r="F5">
-        <v>0.9585055940146086</v>
+        <v>1.032716103523343</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032384577623791</v>
+        <v>1.045280705960437</v>
       </c>
       <c r="J5">
-        <v>0.9974878974930683</v>
+        <v>1.025172614740067</v>
       </c>
       <c r="K5">
-        <v>1.008323421596795</v>
+        <v>1.037236954835269</v>
       </c>
       <c r="L5">
-        <v>0.9954028777822503</v>
+        <v>1.023333877410898</v>
       </c>
       <c r="M5">
-        <v>0.9688940998214283</v>
+        <v>1.042219963601577</v>
       </c>
       <c r="N5">
-        <v>0.9989044447209694</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012243435327466</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041986658215986</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037405423870191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.978521881314462</v>
+        <v>1.006551310955916</v>
       </c>
       <c r="D6">
-        <v>0.9988316601924548</v>
+        <v>1.027790945661165</v>
       </c>
       <c r="E6">
-        <v>0.9858756821592414</v>
+        <v>1.0137656939792</v>
       </c>
       <c r="F6">
-        <v>0.959192103593377</v>
+        <v>1.032835976696085</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032534321942572</v>
+        <v>1.045307100447988</v>
       </c>
       <c r="J6">
-        <v>0.9979416312548473</v>
+        <v>1.025262495710825</v>
       </c>
       <c r="K6">
-        <v>1.008681486281236</v>
+        <v>1.037312302294961</v>
       </c>
       <c r="L6">
-        <v>0.9958802165745535</v>
+        <v>1.023443242714033</v>
       </c>
       <c r="M6">
-        <v>0.9695317407131228</v>
+        <v>1.042302422037341</v>
       </c>
       <c r="N6">
-        <v>0.9993588228367342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012274667924502</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04205191840204</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037467475973694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.974726840849692</v>
+        <v>1.005413321694063</v>
       </c>
       <c r="D7">
-        <v>0.9960534632432038</v>
+        <v>1.027052993496775</v>
       </c>
       <c r="E7">
-        <v>0.9822544985863523</v>
+        <v>1.01277666888144</v>
       </c>
       <c r="F7">
-        <v>0.9544291681559025</v>
+        <v>1.032039237132176</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031494107062711</v>
+        <v>1.045143055203588</v>
       </c>
       <c r="J7">
-        <v>0.9947935645140378</v>
+        <v>1.024673520138387</v>
       </c>
       <c r="K7">
-        <v>1.006196736456418</v>
+        <v>1.036832623173296</v>
       </c>
       <c r="L7">
-        <v>0.9925688467716602</v>
+        <v>1.022720347662774</v>
       </c>
       <c r="M7">
-        <v>0.9651073972876751</v>
+        <v>1.041762886433317</v>
       </c>
       <c r="N7">
-        <v>0.9962062854800645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01207284209938</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.041624912937207</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037132512967806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9579684729815</v>
+        <v>1.000566963370267</v>
       </c>
       <c r="D8">
-        <v>0.9837926659501771</v>
+        <v>1.023911386316664</v>
       </c>
       <c r="E8">
-        <v>0.966278795090341</v>
+        <v>1.008575292532888</v>
       </c>
       <c r="F8">
-        <v>0.9333586258534657</v>
+        <v>1.028657763039484</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026861714552513</v>
+        <v>1.044419990450299</v>
       </c>
       <c r="J8">
-        <v>0.9808703789317071</v>
+        <v>1.02215873199982</v>
       </c>
       <c r="K8">
-        <v>0.9951967455205235</v>
+        <v>1.03477691814646</v>
       </c>
       <c r="L8">
-        <v>0.9779357818791293</v>
+        <v>1.019640345536433</v>
       </c>
       <c r="M8">
-        <v>0.9455239451098477</v>
+        <v>1.03946304963515</v>
       </c>
       <c r="N8">
-        <v>0.9822633273771952</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011209732882956</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039804746852053</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035683533581827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9240915763539246</v>
+        <v>0.9916866646204244</v>
       </c>
       <c r="D9">
-        <v>0.9590726001397715</v>
+        <v>1.018174663599683</v>
       </c>
       <c r="E9">
-        <v>0.9340591554499909</v>
+        <v>1.00092184633242</v>
       </c>
       <c r="F9">
-        <v>0.8904903212785178</v>
+        <v>1.022513727108426</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017354010541277</v>
+        <v>1.043012743564781</v>
       </c>
       <c r="J9">
-        <v>0.9526422758572602</v>
+        <v>1.01753644272746</v>
       </c>
       <c r="K9">
-        <v>0.9728665365388159</v>
+        <v>1.030979594416872</v>
       </c>
       <c r="L9">
-        <v>0.9483210689771532</v>
+        <v>1.013999984907842</v>
       </c>
       <c r="M9">
-        <v>0.9056508961397226</v>
+        <v>1.035251797887456</v>
       </c>
       <c r="N9">
-        <v>0.9539951371585738</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009620026368999</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.036471812474497</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.032995359507816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.897206593143656</v>
+        <v>0.985585783612935</v>
       </c>
       <c r="D10">
-        <v>0.9395499040113281</v>
+        <v>1.014282626207537</v>
       </c>
       <c r="E10">
-        <v>0.9085627787598896</v>
+        <v>0.9957050765174429</v>
       </c>
       <c r="F10">
-        <v>0.8560857397763825</v>
+        <v>1.018415240213727</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.009726308960838</v>
+        <v>1.04201727655861</v>
       </c>
       <c r="J10">
-        <v>0.9301886656325382</v>
+        <v>1.014383199598019</v>
       </c>
       <c r="K10">
-        <v>0.955103680719241</v>
+        <v>1.028398704542191</v>
       </c>
       <c r="L10">
-        <v>0.9248056083042938</v>
+        <v>1.010152312560364</v>
       </c>
       <c r="M10">
-        <v>0.8736508521190641</v>
+        <v>1.032459775985705</v>
       </c>
       <c r="N10">
-        <v>0.9315096402318678</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008539556582836</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.034313798087777</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031187391953188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8840408775951853</v>
+        <v>0.983331805161442</v>
       </c>
       <c r="D11">
-        <v>0.9300293814374131</v>
+        <v>1.013051025802423</v>
       </c>
       <c r="E11">
-        <v>0.8961015379091558</v>
+        <v>0.9938456257532648</v>
       </c>
       <c r="F11">
-        <v>0.8390706185724454</v>
+        <v>1.017561502010288</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.00597753076515</v>
+        <v>1.04178896856397</v>
       </c>
       <c r="J11">
-        <v>0.9191825467696565</v>
+        <v>1.013414825115857</v>
       </c>
       <c r="K11">
-        <v>0.946403564338535</v>
+        <v>1.027730945567434</v>
       </c>
       <c r="L11">
-        <v>0.9132903611197645</v>
+        <v>1.008884545381796</v>
       </c>
       <c r="M11">
-        <v>0.8578339877068093</v>
+        <v>1.032159663085215</v>
       </c>
       <c r="N11">
-        <v>0.9204878914177811</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008248285022395</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.034514504490174</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.030748284162358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8788523032850263</v>
+        <v>0.9826450469907863</v>
       </c>
       <c r="D12">
-        <v>0.9262854866776563</v>
+        <v>1.012758200383077</v>
       </c>
       <c r="E12">
-        <v>0.8911951099772603</v>
+        <v>0.9933058680528972</v>
       </c>
       <c r="F12">
-        <v>0.8323292700297659</v>
+        <v>1.017579287513343</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.004498914523741</v>
+        <v>1.041779896129422</v>
       </c>
       <c r="J12">
-        <v>0.9148436845694927</v>
+        <v>1.013202503879371</v>
       </c>
       <c r="K12">
-        <v>0.942975685330945</v>
+        <v>1.027644988352067</v>
       </c>
       <c r="L12">
-        <v>0.9087526965684921</v>
+        <v>1.008562450711403</v>
       </c>
       <c r="M12">
-        <v>0.851570033852069</v>
+        <v>1.032377271776601</v>
       </c>
       <c r="N12">
-        <v>0.916142867535619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008208435505829</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03501429942533</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.030687508983349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8799802596201997</v>
+        <v>0.9831322914250756</v>
       </c>
       <c r="D13">
-        <v>0.9270989739748466</v>
+        <v>1.013185303733526</v>
       </c>
       <c r="E13">
-        <v>0.8922615109387351</v>
+        <v>0.9937571772958157</v>
       </c>
       <c r="F13">
-        <v>0.8337966193091569</v>
+        <v>1.018292902542703</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.004820393765413</v>
+        <v>1.041951256798437</v>
       </c>
       <c r="J13">
-        <v>0.9157869785681786</v>
+        <v>1.013572782379583</v>
       </c>
       <c r="K13">
-        <v>0.9437208225318544</v>
+        <v>1.028020979171103</v>
       </c>
       <c r="L13">
-        <v>0.9097391216564331</v>
+        <v>1.008960525677051</v>
       </c>
       <c r="M13">
-        <v>0.8529333249677427</v>
+        <v>1.03303494856484</v>
       </c>
       <c r="N13">
-        <v>0.9170875011199802</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008365709730609</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.035811882211163</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.030950843065038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8836185959963632</v>
+        <v>0.9840055967484989</v>
       </c>
       <c r="D14">
-        <v>0.9297245004746244</v>
+        <v>1.01381096951481</v>
       </c>
       <c r="E14">
-        <v>0.8957021232748188</v>
+        <v>0.9945224680502378</v>
       </c>
       <c r="F14">
-        <v>0.8385227556614492</v>
+        <v>1.019106830235787</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.005857209984142</v>
+        <v>1.042152857585561</v>
       </c>
       <c r="J14">
-        <v>0.9188294469573618</v>
+        <v>1.01409586816204</v>
       </c>
       <c r="K14">
-        <v>0.9461245565473444</v>
+        <v>1.028493681606842</v>
       </c>
       <c r="L14">
-        <v>0.9129210430353674</v>
+        <v>1.009565532764079</v>
       </c>
       <c r="M14">
-        <v>0.8573248597023957</v>
+        <v>1.033693704968457</v>
       </c>
       <c r="N14">
-        <v>0.9201342901632519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00856521336961</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.036506390884388</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.031286495036705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8858181316915211</v>
+        <v>0.9844787043002203</v>
       </c>
       <c r="D15">
-        <v>0.9313128708235461</v>
+        <v>1.014128255741236</v>
       </c>
       <c r="E15">
-        <v>0.8977827378532686</v>
+        <v>0.9949302091200748</v>
       </c>
       <c r="F15">
-        <v>0.841374903554361</v>
+        <v>1.019472913540358</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.006483880281112</v>
+        <v>1.04224498803569</v>
       </c>
       <c r="J15">
-        <v>0.9206685819979917</v>
+        <v>1.014356658749768</v>
       </c>
       <c r="K15">
-        <v>0.9475778624140664</v>
+        <v>1.028718087479004</v>
       </c>
       <c r="L15">
-        <v>0.9148447291786737</v>
+        <v>1.009875908526308</v>
       </c>
       <c r="M15">
-        <v>0.8599754701908737</v>
+        <v>1.033966769485375</v>
       </c>
       <c r="N15">
-        <v>0.9219760369865913</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008659237471173</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.036759841943492</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031451061001075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8980430378510957</v>
+        <v>0.9869663472480742</v>
       </c>
       <c r="D16">
-        <v>0.9401557135505738</v>
+        <v>1.015698352614349</v>
       </c>
       <c r="E16">
-        <v>0.9093550169221639</v>
+        <v>0.9970458548758999</v>
       </c>
       <c r="F16">
-        <v>0.8571626584001696</v>
+        <v>1.021103885168784</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.009964266030951</v>
+        <v>1.042649435101279</v>
       </c>
       <c r="J16">
-        <v>0.9308877131578902</v>
+        <v>1.015628323152856</v>
       </c>
       <c r="K16">
-        <v>0.9556564629152492</v>
+        <v>1.029753974632262</v>
       </c>
       <c r="L16">
-        <v>0.9255372338491722</v>
+        <v>1.011431817707396</v>
       </c>
       <c r="M16">
-        <v>0.8746522014559671</v>
+        <v>1.035066687074353</v>
       </c>
       <c r="N16">
-        <v>0.9322096804848873</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009089186081069</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.03759040708518</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032186660218213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9052635260142843</v>
+        <v>0.9884196732361321</v>
       </c>
       <c r="D17">
-        <v>0.9453897383898535</v>
+        <v>1.016576891127737</v>
       </c>
       <c r="E17">
-        <v>0.9161966035424646</v>
+        <v>0.9982714638161579</v>
       </c>
       <c r="F17">
-        <v>0.8664402915290764</v>
+        <v>1.021924858909965</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.012017008486304</v>
+        <v>1.042851794799257</v>
       </c>
       <c r="J17">
-        <v>0.936921031708827</v>
+        <v>1.016330256960598</v>
       </c>
       <c r="K17">
-        <v>0.9604281910974515</v>
+        <v>1.030300378913019</v>
       </c>
       <c r="L17">
-        <v>0.9318529640477544</v>
+        <v>1.012309868564211</v>
       </c>
       <c r="M17">
-        <v>0.8832798627176294</v>
+        <v>1.035559084763279</v>
       </c>
       <c r="N17">
-        <v>0.9382515670401981</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009314539183542</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.037850261901724</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032575593280115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9093339079581343</v>
+        <v>0.9891079521977434</v>
       </c>
       <c r="D18">
-        <v>0.9483437006273031</v>
+        <v>1.016918713785088</v>
       </c>
       <c r="E18">
-        <v>0.9200555133091983</v>
+        <v>0.9988301084279244</v>
       </c>
       <c r="F18">
-        <v>0.8716562357864003</v>
+        <v>1.022074021608122</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.013172934577601</v>
+        <v>1.042890101045153</v>
       </c>
       <c r="J18">
-        <v>0.9403212261778316</v>
+        <v>1.016588858572138</v>
       </c>
       <c r="K18">
-        <v>0.9631179260830689</v>
+        <v>1.030451661683543</v>
       </c>
       <c r="L18">
-        <v>0.9354133163676881</v>
+        <v>1.012669066326044</v>
       </c>
       <c r="M18">
-        <v>0.8881310955867526</v>
+        <v>1.035522304689295</v>
       </c>
       <c r="N18">
-        <v>0.9416565901753566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009377397908405</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.037582830718014</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.032670862574038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9106994775306245</v>
+        <v>0.9891139949208095</v>
       </c>
       <c r="D19">
-        <v>0.9493352521418071</v>
+        <v>1.016788557294085</v>
       </c>
       <c r="E19">
-        <v>0.9213504773804502</v>
+        <v>0.9987945415111387</v>
       </c>
       <c r="F19">
-        <v>0.8734039618271751</v>
+        <v>1.021616707205583</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.013560503540327</v>
+        <v>1.042789240467103</v>
       </c>
       <c r="J19">
-        <v>0.9414617889974544</v>
+        <v>1.016457592261549</v>
       </c>
       <c r="K19">
-        <v>0.964020242721794</v>
+        <v>1.030260632817499</v>
       </c>
       <c r="L19">
-        <v>0.9366077678039471</v>
+        <v>1.012569459881956</v>
       </c>
       <c r="M19">
-        <v>0.8897567093694713</v>
+        <v>1.035009855764444</v>
       </c>
       <c r="N19">
-        <v>0.9427987727250071</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009301307434216</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.03685104330797</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.032542224996523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9045038436767341</v>
+        <v>0.9871931065228425</v>
       </c>
       <c r="D20">
-        <v>0.9448386873106063</v>
+        <v>1.0153228212983</v>
       </c>
       <c r="E20">
-        <v>0.915476558779627</v>
+        <v>0.9970807465039662</v>
       </c>
       <c r="F20">
-        <v>0.8654657074787299</v>
+        <v>1.019501860381701</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.01180116270823</v>
+        <v>1.042294673404132</v>
       </c>
       <c r="J20">
-        <v>0.93628635201216</v>
+        <v>1.015226798048485</v>
       </c>
       <c r="K20">
-        <v>0.9599261643986249</v>
+        <v>1.029101484157211</v>
       </c>
       <c r="L20">
-        <v>0.9311884700369719</v>
+        <v>1.011175122428188</v>
       </c>
       <c r="M20">
-        <v>0.8823734750665434</v>
+        <v>1.033210247148519</v>
       </c>
       <c r="N20">
-        <v>0.9376159860255632</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008831730892239</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.034897117627153</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031726597589334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8825561575848875</v>
+        <v>0.9825298633500595</v>
       </c>
       <c r="D21">
-        <v>0.9289575736377692</v>
+        <v>1.012315700709245</v>
       </c>
       <c r="E21">
-        <v>0.8946972920830526</v>
+        <v>0.9930936800729595</v>
       </c>
       <c r="F21">
-        <v>0.8371437475315657</v>
+        <v>1.016256073317563</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.005554472783419</v>
+        <v>1.041487380204252</v>
       </c>
       <c r="J21">
-        <v>0.9179410450542757</v>
+        <v>1.012776608776329</v>
       </c>
       <c r="K21">
-        <v>0.9454226047089904</v>
+        <v>1.027067445441567</v>
       </c>
       <c r="L21">
-        <v>0.9119918670007302</v>
+        <v>1.008207086830504</v>
       </c>
       <c r="M21">
-        <v>0.8560433975232724</v>
+        <v>1.03093587823085</v>
       </c>
       <c r="N21">
-        <v>0.9192446266275623</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00798435789221</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.033056023962338</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030291688073308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8669663663552806</v>
+        <v>0.9795579238116198</v>
       </c>
       <c r="D22">
-        <v>0.9177275662785566</v>
+        <v>1.010411190463947</v>
       </c>
       <c r="E22">
-        <v>0.8799652693855097</v>
+        <v>0.9905626822282253</v>
       </c>
       <c r="F22">
-        <v>0.8168009872033405</v>
+        <v>1.014236020774502</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.001110594404275</v>
+        <v>1.040968187523052</v>
       </c>
       <c r="J22">
-        <v>0.9049018882894925</v>
+        <v>1.011222319458386</v>
       </c>
       <c r="K22">
-        <v>0.9351262543896216</v>
+        <v>1.025779183100102</v>
       </c>
       <c r="L22">
-        <v>0.8983592973730167</v>
+        <v>1.006323441481622</v>
       </c>
       <c r="M22">
-        <v>0.837148588752372</v>
+        <v>1.02953063800691</v>
       </c>
       <c r="N22">
-        <v>0.906186952764561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.00744772117516</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.031943858017378</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.029367231638893</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8754340612462703</v>
+        <v>0.9811292861142296</v>
       </c>
       <c r="D23">
-        <v>0.9238216421186043</v>
+        <v>1.011412079734072</v>
       </c>
       <c r="E23">
-        <v>0.8879641555934744</v>
+        <v>0.9918988557113511</v>
       </c>
       <c r="F23">
-        <v>0.8278760889166081</v>
+        <v>1.015301173489164</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.003524578693787</v>
+        <v>1.041239729672689</v>
       </c>
       <c r="J23">
-        <v>0.911984870004548</v>
+        <v>1.012039961771047</v>
       </c>
       <c r="K23">
-        <v>0.9407177912257558</v>
+        <v>1.026453145409297</v>
       </c>
       <c r="L23">
-        <v>0.9057634672213836</v>
+        <v>1.007315947316477</v>
       </c>
       <c r="M23">
-        <v>0.847433184548628</v>
+        <v>1.030269548373628</v>
       </c>
       <c r="N23">
-        <v>0.9132799931260811</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007728971238806</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.032528662837078</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.02983406147813</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9048475430272355</v>
+        <v>0.9872122141865458</v>
       </c>
       <c r="D24">
-        <v>0.9450879861207572</v>
+        <v>1.015307327692547</v>
       </c>
       <c r="E24">
-        <v>0.9158023184931317</v>
+        <v>0.9970894079260931</v>
       </c>
       <c r="F24">
-        <v>0.8659066772882297</v>
+        <v>1.019447292039692</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.011898820753781</v>
+        <v>1.042277701129782</v>
       </c>
       <c r="J24">
-        <v>0.9365735000172619</v>
+        <v>1.015211563737184</v>
       </c>
       <c r="K24">
-        <v>0.9601532946181727</v>
+        <v>1.029070858275643</v>
       </c>
       <c r="L24">
-        <v>0.9314891038068392</v>
+        <v>1.011167830350032</v>
       </c>
       <c r="M24">
-        <v>0.8827835859307159</v>
+        <v>1.03314128677266</v>
       </c>
       <c r="N24">
-        <v>0.9379035418137683</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008821370957541</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.034801473061099</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.031677385044014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9334809264668509</v>
+        <v>0.9940389837488949</v>
       </c>
       <c r="D25">
-        <v>0.9659126723150302</v>
+        <v>1.019700103928655</v>
       </c>
       <c r="E25">
-        <v>0.9429789963159007</v>
+        <v>1.002945549655867</v>
       </c>
       <c r="F25">
-        <v>0.9024173201778621</v>
+        <v>1.024137839190432</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02000392376544</v>
+        <v>1.043400905866282</v>
       </c>
       <c r="J25">
-        <v>0.9604748031363838</v>
+        <v>1.018768638785892</v>
       </c>
       <c r="K25">
-        <v>0.9790642505034287</v>
+        <v>1.032000109099285</v>
       </c>
       <c r="L25">
-        <v>0.9565320656242462</v>
+        <v>1.015498311203762</v>
       </c>
       <c r="M25">
-        <v>0.9167463299743278</v>
+        <v>1.036372655479672</v>
       </c>
       <c r="N25">
-        <v>0.9618387875248372</v>
+        <v>1.010045651111407</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.037358900548159</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.033745658957774</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9992848667648203</v>
+        <v>0.9994056890927848</v>
       </c>
       <c r="D2">
-        <v>1.023074101832717</v>
+        <v>1.022796390804179</v>
       </c>
       <c r="E2">
-        <v>1.00746523379788</v>
+        <v>1.00758523738592</v>
       </c>
       <c r="F2">
-        <v>1.027763953732667</v>
+        <v>1.027618606479376</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044217831034275</v>
+        <v>1.044117276211951</v>
       </c>
       <c r="J2">
-        <v>1.021486988403481</v>
+        <v>1.02160419043936</v>
       </c>
       <c r="K2">
-        <v>1.034221071369816</v>
+        <v>1.033947014766167</v>
       </c>
       <c r="L2">
-        <v>1.018821536629073</v>
+        <v>1.018939899679846</v>
       </c>
       <c r="M2">
-        <v>1.038849582592658</v>
+        <v>1.038706125874028</v>
       </c>
       <c r="N2">
-        <v>1.010977745690809</v>
+        <v>1.012862740444613</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.039319228186768</v>
+        <v>1.039205691617097</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035267497943261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035082526710965</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021091382950814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00301624174274</v>
+        <v>1.002995371667182</v>
       </c>
       <c r="D3">
-        <v>1.025490731862441</v>
+        <v>1.025045161624142</v>
       </c>
       <c r="E3">
-        <v>1.010694829818204</v>
+        <v>1.010674077507008</v>
       </c>
       <c r="F3">
-        <v>1.030361481103899</v>
+        <v>1.030092136516912</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044784462720818</v>
+        <v>1.044612350856415</v>
       </c>
       <c r="J3">
-        <v>1.023425017333657</v>
+        <v>1.023404711567948</v>
       </c>
       <c r="K3">
-        <v>1.03580752078236</v>
+        <v>1.035367308142352</v>
       </c>
       <c r="L3">
-        <v>1.021192672977388</v>
+        <v>1.021172179245508</v>
       </c>
       <c r="M3">
-        <v>1.040620077992809</v>
+        <v>1.040353933515492</v>
       </c>
       <c r="N3">
-        <v>1.011643340196063</v>
+        <v>1.013353916937602</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040720457522523</v>
+        <v>1.040509822046833</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036386588879487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036083852504505</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021374385049337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005390109560154</v>
+        <v>1.005280206897612</v>
       </c>
       <c r="D4">
-        <v>1.02703165608407</v>
+        <v>1.026479990501741</v>
       </c>
       <c r="E4">
-        <v>1.012755242188689</v>
+        <v>1.012645883451718</v>
       </c>
       <c r="F4">
-        <v>1.032020757170903</v>
+        <v>1.031673176039943</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045135217521109</v>
+        <v>1.044917839661096</v>
       </c>
       <c r="J4">
-        <v>1.024656933585498</v>
+        <v>1.024549802108919</v>
       </c>
       <c r="K4">
-        <v>1.03681442249066</v>
+        <v>1.036268994015348</v>
       </c>
       <c r="L4">
-        <v>1.022702122090801</v>
+        <v>1.022594042568997</v>
       </c>
       <c r="M4">
-        <v>1.041747489767361</v>
+        <v>1.041403790787101</v>
       </c>
       <c r="N4">
-        <v>1.012066200401754</v>
+        <v>1.013666181493171</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041612727527296</v>
+        <v>1.041340713196702</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037099460022619</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036722407579237</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021551678631666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006381681784378</v>
+        <v>1.006234836484694</v>
       </c>
       <c r="D5">
-        <v>1.027678008124855</v>
+        <v>1.027082235306511</v>
       </c>
       <c r="E5">
-        <v>1.013617623433725</v>
+        <v>1.013471463416666</v>
       </c>
       <c r="F5">
-        <v>1.032716103523343</v>
+        <v>1.032336017872674</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045280705960437</v>
+        <v>1.045044491548052</v>
       </c>
       <c r="J5">
-        <v>1.025172614740067</v>
+        <v>1.025029361798783</v>
       </c>
       <c r="K5">
-        <v>1.037236954835269</v>
+        <v>1.036647740112956</v>
       </c>
       <c r="L5">
-        <v>1.023333877410898</v>
+        <v>1.023189380894055</v>
       </c>
       <c r="M5">
-        <v>1.042219963601577</v>
+        <v>1.041844010803025</v>
       </c>
       <c r="N5">
-        <v>1.012243435327466</v>
+        <v>1.013797150077118</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041986658215986</v>
+        <v>1.041689117333758</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037405423870191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036998120094252</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021626004310911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006551310955916</v>
+        <v>1.006398150092495</v>
       </c>
       <c r="D6">
-        <v>1.027790945661165</v>
+        <v>1.027187692932626</v>
       </c>
       <c r="E6">
-        <v>1.0137656939792</v>
+        <v>1.013613240674984</v>
       </c>
       <c r="F6">
-        <v>1.032835976696085</v>
+        <v>1.032450368448785</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045307100447988</v>
+        <v>1.045067679231306</v>
       </c>
       <c r="J6">
-        <v>1.025262495710825</v>
+        <v>1.025113062488289</v>
       </c>
       <c r="K6">
-        <v>1.037312302294961</v>
+        <v>1.036715659849077</v>
       </c>
       <c r="L6">
-        <v>1.023443242714033</v>
+        <v>1.023292516472415</v>
       </c>
       <c r="M6">
-        <v>1.042302422037341</v>
+        <v>1.041920987607545</v>
       </c>
       <c r="N6">
-        <v>1.012274667924502</v>
+        <v>1.013820277740109</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04205191840204</v>
+        <v>1.04175003921054</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037467475973694</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037055787435669</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02163982452251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005413321694063</v>
+        <v>1.005310507780657</v>
       </c>
       <c r="D7">
-        <v>1.027052993496775</v>
+        <v>1.026505856972475</v>
       </c>
       <c r="E7">
-        <v>1.01277666888144</v>
+        <v>1.012674363382546</v>
       </c>
       <c r="F7">
-        <v>1.032039237132176</v>
+        <v>1.031695625345413</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045143055203588</v>
+        <v>1.044927725834145</v>
       </c>
       <c r="J7">
-        <v>1.024673520138387</v>
+        <v>1.024573297534762</v>
       </c>
       <c r="K7">
-        <v>1.036832623173296</v>
+        <v>1.036291670135949</v>
       </c>
       <c r="L7">
-        <v>1.022720347662774</v>
+        <v>1.022619238400522</v>
       </c>
       <c r="M7">
-        <v>1.041762886433317</v>
+        <v>1.041423110997148</v>
       </c>
       <c r="N7">
-        <v>1.01207284209938</v>
+        <v>1.013699287701338</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041624912937207</v>
+        <v>1.041356003829604</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037132512967806</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036760620539958</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021558128083027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000566963370267</v>
+        <v>1.000663458645587</v>
       </c>
       <c r="D8">
-        <v>1.023911386316664</v>
+        <v>1.023592844589898</v>
       </c>
       <c r="E8">
-        <v>1.008575292532888</v>
+        <v>1.008671171781877</v>
       </c>
       <c r="F8">
-        <v>1.028657763039484</v>
+        <v>1.028484199060566</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044419990450299</v>
+        <v>1.044302483951377</v>
       </c>
       <c r="J8">
-        <v>1.02215873199982</v>
+        <v>1.022252432868214</v>
       </c>
       <c r="K8">
-        <v>1.03477691814646</v>
+        <v>1.03446244463209</v>
       </c>
       <c r="L8">
-        <v>1.019640345536433</v>
+        <v>1.019734953760073</v>
       </c>
       <c r="M8">
-        <v>1.03946304963515</v>
+        <v>1.039291676461199</v>
       </c>
       <c r="N8">
-        <v>1.011209732882956</v>
+        <v>1.013119509792064</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039804746852053</v>
+        <v>1.039669116331326</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035683533581827</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035472246372073</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021198108910544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9916866646204244</v>
+        <v>0.9921311586507381</v>
       </c>
       <c r="D9">
-        <v>1.018174663599683</v>
+        <v>1.018262435033162</v>
       </c>
       <c r="E9">
-        <v>1.00092184633242</v>
+        <v>1.001362231192017</v>
       </c>
       <c r="F9">
-        <v>1.022513727108426</v>
+        <v>1.022641514689208</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043012743564781</v>
+        <v>1.043068338809857</v>
       </c>
       <c r="J9">
-        <v>1.01753644272746</v>
+        <v>1.017964879100286</v>
       </c>
       <c r="K9">
-        <v>1.030979594416872</v>
+        <v>1.031066006179617</v>
       </c>
       <c r="L9">
-        <v>1.013999984907842</v>
+        <v>1.014433245741341</v>
       </c>
       <c r="M9">
-        <v>1.035251797887456</v>
+        <v>1.035377627379767</v>
       </c>
       <c r="N9">
-        <v>1.009620026368999</v>
+        <v>1.011958118305889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.036471812474497</v>
+        <v>1.036571398634706</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032995359507816</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033067254218754</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020506805167316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.985585783612935</v>
+        <v>0.9863089616768788</v>
       </c>
       <c r="D10">
-        <v>1.014282626207537</v>
+        <v>1.014674949526361</v>
       </c>
       <c r="E10">
-        <v>0.9957050765174429</v>
+        <v>0.996420015648444</v>
       </c>
       <c r="F10">
-        <v>1.018415240213727</v>
+        <v>1.018772558811354</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04201727655861</v>
+        <v>1.042202734979107</v>
       </c>
       <c r="J10">
-        <v>1.014383199598019</v>
+        <v>1.015076509618861</v>
       </c>
       <c r="K10">
-        <v>1.028398704542191</v>
+        <v>1.028784203670986</v>
       </c>
       <c r="L10">
-        <v>1.010152312560364</v>
+        <v>1.010854210064285</v>
       </c>
       <c r="M10">
-        <v>1.032459775985705</v>
+        <v>1.032810944039176</v>
       </c>
       <c r="N10">
-        <v>1.008539556582836</v>
+        <v>1.01129017922043</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.034313798087777</v>
+        <v>1.034591708918115</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031187391953188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031472442473385</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020038605628537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.983331805161442</v>
+        <v>0.9841863892264031</v>
       </c>
       <c r="D11">
-        <v>1.013051025802423</v>
+        <v>1.013564704917331</v>
       </c>
       <c r="E11">
-        <v>0.9938456257532648</v>
+        <v>0.994689645048809</v>
       </c>
       <c r="F11">
-        <v>1.017561502010288</v>
+        <v>1.018013957889897</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04178896856397</v>
+        <v>1.04202376113486</v>
       </c>
       <c r="J11">
-        <v>1.013414825115857</v>
+        <v>1.014232158384076</v>
       </c>
       <c r="K11">
-        <v>1.027730945567434</v>
+        <v>1.028235265749302</v>
       </c>
       <c r="L11">
-        <v>1.008884545381796</v>
+        <v>1.009712406576485</v>
       </c>
       <c r="M11">
-        <v>1.032159663085215</v>
+        <v>1.032603969531624</v>
       </c>
       <c r="N11">
-        <v>1.008248285022395</v>
+        <v>1.011319230995498</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034514504490174</v>
+        <v>1.034865945659323</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.030748284162358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031120555712121</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01997116646021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9826450469907863</v>
+        <v>0.9835342528779437</v>
       </c>
       <c r="D12">
-        <v>1.012758200383077</v>
+        <v>1.013299979153611</v>
       </c>
       <c r="E12">
-        <v>0.9933058680528972</v>
+        <v>0.9941837601047431</v>
       </c>
       <c r="F12">
-        <v>1.017579287513343</v>
+        <v>1.018054480843626</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041779896129422</v>
+        <v>1.042024140647472</v>
       </c>
       <c r="J12">
-        <v>1.013202503879371</v>
+        <v>1.014052198496094</v>
       </c>
       <c r="K12">
-        <v>1.027644988352067</v>
+        <v>1.028176732690929</v>
       </c>
       <c r="L12">
-        <v>1.008562450711403</v>
+        <v>1.009423244905266</v>
       </c>
       <c r="M12">
-        <v>1.032377271776601</v>
+        <v>1.032843771402101</v>
       </c>
       <c r="N12">
-        <v>1.008208435505829</v>
+        <v>1.011395684153074</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03501429942533</v>
+        <v>1.035383169282923</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030687508983349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031079171420086</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019991516671621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9831322914250756</v>
+        <v>0.9839712747612857</v>
       </c>
       <c r="D13">
-        <v>1.013185303733526</v>
+        <v>1.013676224787706</v>
       </c>
       <c r="E13">
-        <v>0.9937571772958157</v>
+        <v>0.9945855658060571</v>
       </c>
       <c r="F13">
-        <v>1.018292902542703</v>
+        <v>1.018729032401272</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041951256798437</v>
+        <v>1.042171008021467</v>
       </c>
       <c r="J13">
-        <v>1.013572782379583</v>
+        <v>1.014374672968879</v>
       </c>
       <c r="K13">
-        <v>1.028020979171103</v>
+        <v>1.028502847546577</v>
       </c>
       <c r="L13">
-        <v>1.008960525677051</v>
+        <v>1.009772852873589</v>
       </c>
       <c r="M13">
-        <v>1.03303494856484</v>
+        <v>1.033463140164508</v>
       </c>
       <c r="N13">
-        <v>1.008365709730609</v>
+        <v>1.011481671172527</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035811882211163</v>
+        <v>1.036150375597598</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.030950843065038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031306994236272</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020085277812032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9840055967484989</v>
+        <v>0.9847718127326714</v>
       </c>
       <c r="D14">
-        <v>1.01381096951481</v>
+        <v>1.014231309394696</v>
       </c>
       <c r="E14">
-        <v>0.9945224680502378</v>
+        <v>0.9952792173189339</v>
       </c>
       <c r="F14">
-        <v>1.019106830235787</v>
+        <v>1.019488282521136</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042152857585561</v>
+        <v>1.042340602946682</v>
       </c>
       <c r="J14">
-        <v>1.01409586816204</v>
+        <v>1.014828698408734</v>
       </c>
       <c r="K14">
-        <v>1.028493681606842</v>
+        <v>1.028906367158477</v>
       </c>
       <c r="L14">
-        <v>1.009565532764079</v>
+        <v>1.010307799755234</v>
       </c>
       <c r="M14">
-        <v>1.033693704968457</v>
+        <v>1.034068304189014</v>
       </c>
       <c r="N14">
-        <v>1.00856521336961</v>
+        <v>1.011547600649262</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036506390884388</v>
+        <v>1.036802478353356</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031286495036705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031593863205296</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020184520426876</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9844787043002203</v>
+        <v>0.9852092618527833</v>
       </c>
       <c r="D15">
-        <v>1.014128255741236</v>
+        <v>1.014514463826939</v>
       </c>
       <c r="E15">
-        <v>0.9949302091200748</v>
+        <v>0.9956518600059937</v>
       </c>
       <c r="F15">
-        <v>1.019472913540358</v>
+        <v>1.019827842242809</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04224498803569</v>
+        <v>1.042417724870018</v>
       </c>
       <c r="J15">
-        <v>1.014356658749768</v>
+        <v>1.015055664816341</v>
       </c>
       <c r="K15">
-        <v>1.028718087479004</v>
+        <v>1.029097316228352</v>
       </c>
       <c r="L15">
-        <v>1.009875908526308</v>
+        <v>1.010583857844984</v>
       </c>
       <c r="M15">
-        <v>1.033966769485375</v>
+        <v>1.034315370854715</v>
       </c>
       <c r="N15">
-        <v>1.008659237471173</v>
+        <v>1.011570624974246</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.036759841943492</v>
+        <v>1.037035373141056</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031451061001075</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031735340815546</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020227416821643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9869663472480742</v>
+        <v>0.9875340079847752</v>
       </c>
       <c r="D16">
-        <v>1.015698352614349</v>
+        <v>1.015927711457706</v>
       </c>
       <c r="E16">
-        <v>0.9970458548758999</v>
+        <v>0.9976071169922817</v>
       </c>
       <c r="F16">
-        <v>1.021103885168784</v>
+        <v>1.02133708150621</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042649435101279</v>
+        <v>1.042755479113095</v>
       </c>
       <c r="J16">
-        <v>1.015628323152856</v>
+        <v>1.016172701768406</v>
       </c>
       <c r="K16">
-        <v>1.029753974632262</v>
+        <v>1.029979369126011</v>
       </c>
       <c r="L16">
-        <v>1.011431817707396</v>
+        <v>1.011982905277711</v>
       </c>
       <c r="M16">
-        <v>1.035066687074353</v>
+        <v>1.035295907675539</v>
       </c>
       <c r="N16">
-        <v>1.009089186081069</v>
+        <v>1.011662555728754</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.03759040708518</v>
+        <v>1.03777158604163</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032186660218213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032362468661641</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020403958838925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9884196732361321</v>
+        <v>0.9889097375861734</v>
       </c>
       <c r="D17">
-        <v>1.016576891127737</v>
+        <v>1.016729191238824</v>
       </c>
       <c r="E17">
-        <v>0.9982714638161579</v>
+        <v>0.9987562766437322</v>
       </c>
       <c r="F17">
-        <v>1.021924858909965</v>
+        <v>1.022098689169342</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042851794799257</v>
+        <v>1.042926045506211</v>
       </c>
       <c r="J17">
-        <v>1.016330256960598</v>
+        <v>1.016800871965387</v>
       </c>
       <c r="K17">
-        <v>1.030300378913019</v>
+        <v>1.030450120262852</v>
       </c>
       <c r="L17">
-        <v>1.012309868564211</v>
+        <v>1.012786148034112</v>
       </c>
       <c r="M17">
-        <v>1.035559084763279</v>
+        <v>1.035730033832702</v>
       </c>
       <c r="N17">
-        <v>1.009314539183542</v>
+        <v>1.011728096974956</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.037850261901724</v>
+        <v>1.037985395789342</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032575593280115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032698157416036</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020488293037096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9891079521977434</v>
+        <v>0.9895759037352243</v>
       </c>
       <c r="D18">
-        <v>1.016918713785088</v>
+        <v>1.017048633524162</v>
       </c>
       <c r="E18">
-        <v>0.9988301084279244</v>
+        <v>0.9992931913166898</v>
       </c>
       <c r="F18">
-        <v>1.022074021608122</v>
+        <v>1.022230631472463</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042890101045153</v>
+        <v>1.042956647865799</v>
       </c>
       <c r="J18">
-        <v>1.016588858572138</v>
+        <v>1.017038588660747</v>
       </c>
       <c r="K18">
-        <v>1.030451661683543</v>
+        <v>1.03057943420362</v>
       </c>
       <c r="L18">
-        <v>1.012669066326044</v>
+        <v>1.013124136362566</v>
       </c>
       <c r="M18">
-        <v>1.035522304689295</v>
+        <v>1.035676359748396</v>
       </c>
       <c r="N18">
-        <v>1.009377397908405</v>
+        <v>1.011733280472966</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.037582830718014</v>
+        <v>1.037704635542144</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032670862574038</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032776760856025</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020491908139559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9891139949208095</v>
+        <v>0.9896026757441397</v>
       </c>
       <c r="D19">
-        <v>1.016788557294085</v>
+        <v>1.016940632457118</v>
       </c>
       <c r="E19">
-        <v>0.9987945415111387</v>
+        <v>0.9992781847449888</v>
       </c>
       <c r="F19">
-        <v>1.021616707205583</v>
+        <v>1.021790032317046</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042789240467103</v>
+        <v>1.04286756287837</v>
       </c>
       <c r="J19">
-        <v>1.016457592261549</v>
+        <v>1.016927356966601</v>
       </c>
       <c r="K19">
-        <v>1.030260632817499</v>
+        <v>1.030410207268016</v>
       </c>
       <c r="L19">
-        <v>1.012569459881956</v>
+        <v>1.013044778904214</v>
       </c>
       <c r="M19">
-        <v>1.035009855764444</v>
+        <v>1.035180365300284</v>
       </c>
       <c r="N19">
-        <v>1.009301307434216</v>
+        <v>1.0116693385628</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03685104330797</v>
+        <v>1.036985902342916</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032542224996523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032664162666741</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020426899510727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9871931065228425</v>
+        <v>0.9878193886716429</v>
       </c>
       <c r="D20">
-        <v>1.0153228212983</v>
+        <v>1.015618964788719</v>
       </c>
       <c r="E20">
-        <v>0.9970807465039662</v>
+        <v>0.9977002502963195</v>
       </c>
       <c r="F20">
-        <v>1.019501860381701</v>
+        <v>1.019784941147506</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042294673404132</v>
+        <v>1.042438461861293</v>
       </c>
       <c r="J20">
-        <v>1.015226798048485</v>
+        <v>1.015828064040883</v>
       </c>
       <c r="K20">
-        <v>1.029101484157211</v>
+        <v>1.029392623037181</v>
       </c>
       <c r="L20">
-        <v>1.011175122428188</v>
+        <v>1.011783658928308</v>
       </c>
       <c r="M20">
-        <v>1.033210247148519</v>
+        <v>1.033488594376569</v>
       </c>
       <c r="N20">
-        <v>1.008831730892239</v>
+        <v>1.011398015646556</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.034897117627153</v>
+        <v>1.035117401471696</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031726597589334</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031949020987606</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020166424884531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9825298633500595</v>
+        <v>0.9834879543379895</v>
       </c>
       <c r="D21">
-        <v>1.012315700709245</v>
+        <v>1.012929518531233</v>
       </c>
       <c r="E21">
-        <v>0.9930936800729595</v>
+        <v>0.9940397978980146</v>
       </c>
       <c r="F21">
-        <v>1.016256073317563</v>
+        <v>1.016786776093069</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041487380204252</v>
+        <v>1.041769840362756</v>
       </c>
       <c r="J21">
-        <v>1.012776608776329</v>
+        <v>1.013692635352214</v>
       </c>
       <c r="K21">
-        <v>1.027067445441567</v>
+        <v>1.027670008796259</v>
       </c>
       <c r="L21">
-        <v>1.008207086830504</v>
+        <v>1.009134974830968</v>
       </c>
       <c r="M21">
-        <v>1.03093587823085</v>
+        <v>1.031456947326952</v>
       </c>
       <c r="N21">
-        <v>1.00798435789221</v>
+        <v>1.011231959834903</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.033056023962338</v>
+        <v>1.033468419411489</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030291688073308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030734635543662</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019808334180543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9795579238116198</v>
+        <v>0.9807267856359256</v>
       </c>
       <c r="D22">
-        <v>1.010411190463947</v>
+        <v>1.011227038060219</v>
       </c>
       <c r="E22">
-        <v>0.9905626822282253</v>
+        <v>0.9917156381845954</v>
       </c>
       <c r="F22">
-        <v>1.014236020774502</v>
+        <v>1.014924302634875</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040968187523052</v>
+        <v>1.041338978239703</v>
       </c>
       <c r="J22">
-        <v>1.011222319458386</v>
+        <v>1.012336842134169</v>
       </c>
       <c r="K22">
-        <v>1.025779183100102</v>
+        <v>1.026579318517939</v>
       </c>
       <c r="L22">
-        <v>1.006323441481622</v>
+        <v>1.00745301590253</v>
       </c>
       <c r="M22">
-        <v>1.02953063800691</v>
+        <v>1.030205792698569</v>
       </c>
       <c r="N22">
-        <v>1.00744772117516</v>
+        <v>1.011120360794606</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.031943858017378</v>
+        <v>1.032478203926909</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029367231638893</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029948579411734</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019580705879714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9811292861142296</v>
+        <v>0.9821732075143478</v>
       </c>
       <c r="D23">
-        <v>1.011412079734072</v>
+        <v>1.012111336114545</v>
       </c>
       <c r="E23">
-        <v>0.9918988557113511</v>
+        <v>0.9929291914777346</v>
       </c>
       <c r="F23">
-        <v>1.015301173489164</v>
+        <v>1.01589785704899</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041239729672689</v>
+        <v>1.041559336054309</v>
       </c>
       <c r="J23">
-        <v>1.012039961771047</v>
+        <v>1.013036790274793</v>
       </c>
       <c r="K23">
-        <v>1.026453145409297</v>
+        <v>1.027139278250821</v>
       </c>
       <c r="L23">
-        <v>1.007315947316477</v>
+        <v>1.008325942805976</v>
       </c>
       <c r="M23">
-        <v>1.030269548373628</v>
+        <v>1.030855143588873</v>
       </c>
       <c r="N23">
-        <v>1.007728971238806</v>
+        <v>1.011133707512387</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.032528662837078</v>
+        <v>1.03299212723446</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.02983406147813</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030333861562409</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019695511780184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9872122141865458</v>
+        <v>0.9878399057022721</v>
       </c>
       <c r="D24">
-        <v>1.015307327692547</v>
+        <v>1.015604961158939</v>
       </c>
       <c r="E24">
-        <v>0.9970894079260931</v>
+        <v>0.9977103211966062</v>
       </c>
       <c r="F24">
-        <v>1.019447292039692</v>
+        <v>1.019731532260693</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042277701129782</v>
+        <v>1.042422496490065</v>
       </c>
       <c r="J24">
-        <v>1.015211563737184</v>
+        <v>1.015814219562192</v>
       </c>
       <c r="K24">
-        <v>1.029070858275643</v>
+        <v>1.0293634682201</v>
       </c>
       <c r="L24">
-        <v>1.011167830350032</v>
+        <v>1.011777765828409</v>
       </c>
       <c r="M24">
-        <v>1.03314128677266</v>
+        <v>1.033420779513793</v>
       </c>
       <c r="N24">
-        <v>1.008821370957541</v>
+        <v>1.011386508857338</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034801473061099</v>
+        <v>1.035022674558721</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.031677385044014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031898181795404</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020154390588022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9940389837488949</v>
+        <v>0.9943801296621092</v>
       </c>
       <c r="D25">
-        <v>1.019700103928655</v>
+        <v>1.019672913398251</v>
       </c>
       <c r="E25">
-        <v>1.002945549655867</v>
+        <v>1.003283808247718</v>
       </c>
       <c r="F25">
-        <v>1.024137839190432</v>
+        <v>1.024179374488032</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043400905866282</v>
+        <v>1.043407274973906</v>
       </c>
       <c r="J25">
-        <v>1.018768638785892</v>
+        <v>1.019098116413872</v>
       </c>
       <c r="K25">
-        <v>1.032000109099285</v>
+        <v>1.031973320210796</v>
       </c>
       <c r="L25">
-        <v>1.015498311203762</v>
+        <v>1.01583136031176</v>
       </c>
       <c r="M25">
-        <v>1.036372655479672</v>
+        <v>1.03641358402321</v>
       </c>
       <c r="N25">
-        <v>1.010045651111407</v>
+        <v>1.012235903500044</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.037358900548159</v>
+        <v>1.037391292887425</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.033745658957774</v>
+        <v>1.03374030955059</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020695093143457</v>
       </c>
     </row>
   </sheetData>
